--- a/specs/009-semantic-etl/test_data/standard_supplier_300rows.xlsx
+++ b/specs/009-semantic-etl/test_data/standard_supplier_300rows.xlsx
@@ -471,709 +471,709 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Xiaomi Climate Control X35</t>
+          <t>DeWalt X35 Hand Tools</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi Climate Control X35. With warranty.</t>
+          <t>Premium DeWalt X35 Hand Tools. Best price.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>930.5</v>
+        <v>4137.67</v>
       </c>
       <c r="D2" t="n">
-        <v>685.29</v>
+        <v>3473.79</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Appliances &gt; Climate Control</t>
+          <t>Инструменты &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Printers Logitech X13</t>
+          <t>Lenovo X26 Silver</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>High quality Printers Logitech X13. New model.</t>
+          <t>Reliable Lenovo X26 Silver. New model.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4437.34</v>
+        <v>3222.91</v>
       </c>
       <c r="D3" t="n">
-        <v>3260.79</v>
+        <v>2675.8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DeWalt Safety S10</t>
+          <t>Dyson Cleaning (Ultra)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Professional DeWalt Safety S10. Fast shipping.</t>
+          <t>Reliable Dyson Cleaning (Ultra). Fast shipping.</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65.36</v>
+        <v>3445.81</v>
       </c>
       <c r="D4" t="n">
-        <v>46.54</v>
+        <v>2619.19</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LG Laundry (Max)</t>
+          <t>Logitech Printers S3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reliable LG Laundry (Max). New model.</t>
+          <t>Premium Logitech Printers S3. Best price.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>531.02</v>
+        <v>4476.01</v>
       </c>
       <c r="D5" t="n">
-        <v>447.97</v>
+        <v>3660.86</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HP Accessories X23</t>
+          <t>Canon Printers S20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Durable HP Accessories X23. New model.</t>
+          <t>Professional Canon Printers S20. Best price.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4280.55</v>
+        <v>66.09</v>
       </c>
       <c r="D6" t="n">
-        <v>3621.81</v>
+        <v>46.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epson Printers X16</t>
+          <t>Furniture Epson X27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Professional Epson Printers X16. With warranty.</t>
+          <t>Professional Furniture Epson X27. With warranty.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3493.44</v>
+        <v>1981.02</v>
       </c>
       <c r="D7" t="n">
-        <v>2768.45</v>
+        <v>1484.71</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LG Cleaning (Basic)</t>
+          <t>Xiaomi Kitchen (Ultra)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Premium LG Cleaning (Basic). Official distributor.</t>
+          <t>Reliable Xiaomi Kitchen (Ultra). With warranty.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4773.16</v>
+        <v>3738.07</v>
       </c>
       <c r="D8" t="n">
-        <v>4048.47</v>
+        <v>3099.44</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Cleaning</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Makita S9 Hand Tools</t>
+          <t>Dyson S2 Climate Control</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Premium Makita S9 Hand Tools. With warranty.</t>
+          <t>High quality Dyson S2 Climate Control. Official distributor.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1622.91</v>
+        <v>1774.78</v>
       </c>
       <c r="D9" t="n">
-        <v>1278.73</v>
+        <v>1295.47</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Xiaomi Laundry Pro10</t>
+          <t>Dyson Kitchen (Premium)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Laundry Pro10. Official distributor.</t>
+          <t>Reliable Dyson Kitchen (Premium). Best price.</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2809.87</v>
+        <v>1152.29</v>
       </c>
       <c r="D10" t="n">
-        <v>2342.08</v>
+        <v>832.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Xiaomi X43 Laundry</t>
+          <t>Dell Supplies X47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>High quality Xiaomi X43 Laundry. Official distributor.</t>
+          <t>Premium Dell Supplies X47. Fast shipping.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4166.22</v>
+        <v>2704.44</v>
       </c>
       <c r="D11" t="n">
-        <v>3082.41</v>
+        <v>1984.29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Appliances &gt; Laundry</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ASUS Pro9 32" Basic</t>
+          <t>Bosch Professional Garden</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>High quality ASUS Pro9 32" Basic. With warranty.</t>
+          <t>Durable Bosch Professional Garden. With warranty.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3111.28</v>
+        <v>768.58</v>
       </c>
       <c r="D12" t="n">
-        <v>2563.07</v>
+        <v>600.21</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Electronic &gt; Laptops</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ASUS Pro4 (Ultra)</t>
+          <t>Samsung S7 32" Max</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Professional ASUS Pro4 (Ultra). Best price.</t>
+          <t>Reliable Samsung S7 32" Max. New model.</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2112.89</v>
+        <v>2145.08</v>
       </c>
       <c r="D13" t="n">
-        <v>1482.15</v>
+        <v>1510.81</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Electronics &gt; Mobile Phones</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Samsung X45 (Ultra)</t>
+          <t>Logitech Supplies X48</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>High quality Samsung X45 (Ultra). With warranty.</t>
+          <t>Durable Logitech Supplies X48. Official distributor.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4287.23</v>
+        <v>184.8</v>
       </c>
       <c r="D14" t="n">
-        <v>3114.32</v>
+        <v>129.78</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lenovo Pro1 (Premium)</t>
+          <t>DeWalt S1 Power Tools</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Reliable Lenovo Pro1 (Premium). Best price.</t>
+          <t>Durable DeWalt S1 Power Tools. Fast shipping.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>616.77</v>
+        <v>547.09</v>
       </c>
       <c r="D15" t="n">
-        <v>513.86</v>
+        <v>458.52</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Power Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Xiaomi Cleaning X39</t>
+          <t>Canon Printers S12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi Cleaning X39. Official distributor.</t>
+          <t>High quality Canon Printers S12. Best price.</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3970.81</v>
+        <v>4934.99</v>
       </c>
       <c r="D16" t="n">
-        <v>2843.13</v>
+        <v>3955.27</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Apple Pro4 (Basic)</t>
+          <t>Supplies Canon S6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Professional Apple Pro4 (Basic). Fast shipping.</t>
+          <t>Reliable Supplies Canon S6. With warranty.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>747.33</v>
+        <v>3336.56</v>
       </c>
       <c r="D17" t="n">
-        <v>538.83</v>
+        <v>2405.8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Xiaomi Cleaning (Max)</t>
+          <t>Bosch Pro7 Safety</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Premium Xiaomi Cleaning (Max). Official distributor.</t>
+          <t>Premium Bosch Pro7 Safety. Official distributor.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3864.75</v>
+        <v>4204.3</v>
       </c>
       <c r="D18" t="n">
-        <v>3053.01</v>
+        <v>3235.78</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Xiaomi S13 Kitchen</t>
+          <t>Dell X14 Printers</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>High quality Xiaomi S13 Kitchen. Best price.</t>
+          <t>Reliable Dell X14 Printers. Fast shipping.</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3869.65</v>
+        <v>2706.76</v>
       </c>
       <c r="D19" t="n">
-        <v>3033.56</v>
+        <v>2043.75</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Kitchen</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Samsung X30 55" Premium</t>
+          <t>Milwaukee X17 Garden</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reliable Samsung X30 55" Premium. Best price.</t>
+          <t>Reliable Milwaukee X17 Garden. Best price.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1036.31</v>
+        <v>4175.09</v>
       </c>
       <c r="D20" t="n">
-        <v>771.28</v>
+        <v>3068.85</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Hardware &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Makita Professional Hand Tools</t>
+          <t>LG Cleaning (Lite)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Premium Makita Professional Hand Tools. New model.</t>
+          <t>High quality LG Cleaning (Lite). Official distributor.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1818.53</v>
+        <v>947.55</v>
       </c>
       <c r="D21" t="n">
-        <v>1346.44</v>
+        <v>710.85</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Samsung X27 White</t>
+          <t>Lenovo S25 55" Air</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Professional Samsung X27 White. Official distributor.</t>
+          <t>Reliable Lenovo S25 55" Air. Official distributor.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2470.61</v>
+        <v>3672.54</v>
       </c>
       <c r="D22" t="n">
-        <v>1740.69</v>
+        <v>3071.92</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Electronics/Gadgets &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Huawei S26 32" Premium</t>
+          <t>ASUS S13 Gray</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Premium Huawei S26 32" Premium. With warranty.</t>
+          <t>Durable ASUS S13 Gray. Best price.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4748.71</v>
+        <v>2968.89</v>
       </c>
       <c r="D23" t="n">
-        <v>3997.96</v>
+        <v>2118.14</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Makita Professional Power Tools</t>
+          <t>Printers Canon X12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>High quality Makita Professional Power Tools. With warranty.</t>
+          <t>Premium Printers Canon X12. Official distributor.</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2937.55</v>
+        <v>484.65</v>
       </c>
       <c r="D24" t="n">
-        <v>2483.45</v>
+        <v>399.03</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tools &gt; Power Tools</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Philips Cleaning (Premium)</t>
+          <t>Samsung X33 White</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>High quality Philips Cleaning (Premium). Official distributor.</t>
+          <t>Premium Samsung X33 White. Official distributor.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1130.14</v>
+        <v>2413.65</v>
       </c>
       <c r="D25" t="n">
-        <v>940.13</v>
+        <v>1700.45</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Электроника &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Xiaomi X16 Blue</t>
+          <t>DeWalt Hand Tools X41</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Durable Xiaomi X16 Blue. With warranty.</t>
+          <t>High quality DeWalt Hand Tools X41. New model.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1784.38</v>
+        <v>511.99</v>
       </c>
       <c r="D26" t="n">
-        <v>1372.8</v>
+        <v>381.25</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Electronics &gt; Notebook</t>
+          <t>Hardware &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Logitech Printers X15</t>
+          <t>Accessories Canon S5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Reliable Logitech Printers X15. Fast shipping.</t>
+          <t>High quality Accessories Canon S5. Best price.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>932.58</v>
+        <v>4120.8</v>
       </c>
       <c r="D27" t="n">
-        <v>705.63</v>
+        <v>3479.92</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Accessories HP S16</t>
+          <t>Philips Laundry (Pro)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Durable Accessories HP S16. With warranty.</t>
+          <t>High quality Philips Laundry (Pro). Official distributor.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1217.6</v>
+        <v>17.13</v>
       </c>
       <c r="D28" t="n">
-        <v>942.86</v>
+        <v>13.12</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Canon S7 Furniture</t>
+          <t>Printers HP S19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Professional Canon S7 Furniture. Fast shipping.</t>
+          <t>Durable Printers HP S19. Official distributor.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2719.38</v>
+        <v>1320.54</v>
       </c>
       <c r="D29" t="n">
-        <v>2073.87</v>
+        <v>1012.97</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ASUS X27 (Lite)</t>
+          <t>DeWalt Garden X7</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Durable ASUS X27 (Lite). New model.</t>
+          <t>Reliable DeWalt Garden X7. Best price.</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1696.71</v>
+        <v>1215.83</v>
       </c>
       <c r="D30" t="n">
-        <v>1420.19</v>
+        <v>986.9400000000001</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dyson Kitchen (Pro)</t>
+          <t>Huawei S22 (Plus)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Professional Dyson Kitchen (Pro). New model.</t>
+          <t>Premium Huawei S22 (Plus). With warranty.</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2693.72</v>
+        <v>4983.7</v>
       </c>
       <c r="D31" t="n">
-        <v>2068.22</v>
+        <v>4017.51</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Electronics &gt; Notebook</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Xiaomi Climate Control X43</t>
+          <t>LG X20 Climate Control</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>High quality Xiaomi Climate Control X43. Fast shipping.</t>
+          <t>Reliable LG X20 Climate Control. Best price.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4102.67</v>
+        <v>3684.12</v>
       </c>
       <c r="D32" t="n">
-        <v>3325.75</v>
+        <v>2884.88</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1184,1399 +1184,1399 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bosch Climate Control X8</t>
+          <t>DeWalt Garden X31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>High quality Bosch Climate Control X8. Best price.</t>
+          <t>High quality DeWalt Garden X31. Fast shipping.</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4166.03</v>
+        <v>2067.35</v>
       </c>
       <c r="D33" t="n">
-        <v>3386.09</v>
+        <v>1714.12</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LG Cleaning (Premium)</t>
+          <t>Apple Pro10 Blue</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>High quality LG Cleaning (Premium). With warranty.</t>
+          <t>Premium Apple Pro10 Blue. New model.</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4917.3</v>
+        <v>2333.81</v>
       </c>
       <c r="D34" t="n">
-        <v>3701.36</v>
+        <v>1703.33</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Appliances &gt; Cleaning</t>
+          <t>Electronics &gt; Смартфоны</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Metabo Professional Garden</t>
+          <t>Lenovo X38 Red</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Reliable Metabo Professional Garden. New model.</t>
+          <t>High quality Lenovo X38 Red. Official distributor.</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3777.31</v>
+        <v>4527.83</v>
       </c>
       <c r="D35" t="n">
-        <v>3165.37</v>
+        <v>3691.13</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Electronics &gt; Phones</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Milwaukee X31 Hand Tools</t>
+          <t>Apple X12 (Plus)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>High quality Milwaukee X31 Hand Tools. Best price.</t>
+          <t>High quality Apple X12 (Plus). New model.</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3626.24</v>
+        <v>4743.67</v>
       </c>
       <c r="D36" t="n">
-        <v>2702.1</v>
+        <v>3373.65</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Electronics &gt; Laptop Computer</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bosch Professional Power Tools</t>
+          <t>Xiaomi X21 (Air)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Durable Bosch Professional Power Tools. Fast shipping.</t>
+          <t>Reliable Xiaomi X21 (Air). Official distributor.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1382.72</v>
+        <v>2978.35</v>
       </c>
       <c r="D37" t="n">
-        <v>1129.46</v>
+        <v>2253.21</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Электроника &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bosch X9 Kitchen</t>
+          <t>DeWalt Professional Hand Tools</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Durable Bosch X9 Kitchen. New model.</t>
+          <t>Durable DeWalt Professional Hand Tools. New model.</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3317</v>
+        <v>2174.29</v>
       </c>
       <c r="D38" t="n">
-        <v>2777.68</v>
+        <v>1603.79</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HP S4 Supplies</t>
+          <t>Xiaomi Cleaning (Premium)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Professional HP S4 Supplies. With warranty.</t>
+          <t>Premium Xiaomi Cleaning (Premium). Best price.</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1205.63</v>
+        <v>1302.79</v>
       </c>
       <c r="D39" t="n">
-        <v>905.4299999999999</v>
+        <v>1064.87</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bosch Pro11 Hand Tools</t>
+          <t>Canon Furniture S18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Professional Bosch Pro11 Hand Tools. With warranty.</t>
+          <t>Professional Canon Furniture S18. Fast shipping.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3944.79</v>
+        <v>3242.4</v>
       </c>
       <c r="D40" t="n">
-        <v>3014.9</v>
+        <v>2281.54</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Apple Pro14 15.6" Air</t>
+          <t>Dell Furniture S6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Durable Apple Pro14 15.6" Air. With warranty.</t>
+          <t>Premium Dell Furniture S6. New model.</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2930.01</v>
+        <v>4591.32</v>
       </c>
       <c r="D41" t="n">
-        <v>2181.81</v>
+        <v>3854.19</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Apple X12 55" Air</t>
+          <t>HP S19 Supplies</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Durable Apple X12 55" Air. Fast shipping.</t>
+          <t>Reliable HP S19 Supplies. Fast shipping.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4242.1</v>
+        <v>3035.92</v>
       </c>
       <c r="D42" t="n">
-        <v>3498.31</v>
+        <v>2322.98</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Электроника &gt; Mobile Phones</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Metabo X10 Garden</t>
+          <t>Makita Safety X12</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Professional Metabo X10 Garden. Best price.</t>
+          <t>Durable Makita Safety X12. Fast shipping.</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1729.8</v>
+        <v>2343.97</v>
       </c>
       <c r="D43" t="n">
-        <v>1338.75</v>
+        <v>1873.88</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Garden</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bosch Professional Safety</t>
+          <t>DeWalt Professional Garden</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Professional Bosch Professional Safety. Fast shipping.</t>
+          <t>High quality DeWalt Professional Garden. Fast shipping.</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2385.54</v>
+        <v>4614.05</v>
       </c>
       <c r="D44" t="n">
-        <v>1727.72</v>
+        <v>3407.34</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Hardware &gt; Safety</t>
+          <t>Hardware &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Canon S13 Furniture</t>
+          <t>Samsung S23 Climate Control</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>High quality Canon S13 Furniture. Best price.</t>
+          <t>High quality Samsung S23 Climate Control. Fast shipping.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1849.84</v>
+        <v>3579.71</v>
       </c>
       <c r="D45" t="n">
-        <v>1344.01</v>
+        <v>2880.62</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Logitech Furniture S5</t>
+          <t>Bosch Cleaning (Plus)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>High quality Logitech Furniture S5. With warranty.</t>
+          <t>High quality Bosch Cleaning (Plus). Best price.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>264.05</v>
+        <v>575.61</v>
       </c>
       <c r="D46" t="n">
-        <v>207.6</v>
+        <v>442.07</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LG Pro15 Kitchen</t>
+          <t>Logitech S3 Accessories</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Premium LG Pro15 Kitchen. With warranty.</t>
+          <t>Reliable Logitech S3 Accessories. New model.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1758.47</v>
+        <v>4401.57</v>
       </c>
       <c r="D47" t="n">
-        <v>1269.49</v>
+        <v>3112.17</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Furniture Canon S6</t>
+          <t>Bosch S28 Garden</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Reliable Furniture Canon S6. New model.</t>
+          <t>Durable Bosch S28 Garden. New model.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1610.1</v>
+        <v>2721.92</v>
       </c>
       <c r="D48" t="n">
-        <v>1345</v>
+        <v>2261.58</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Xiaomi Laundry (Basic)</t>
+          <t>Apple S21 Red</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Durable Xiaomi Laundry (Basic). New model.</t>
+          <t>Durable Apple S21 Red. With warranty.</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1567.75</v>
+        <v>1119.7</v>
       </c>
       <c r="D49" t="n">
-        <v>1280.66</v>
+        <v>921.17</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ASUS X39 Gray</t>
+          <t>Huawei X34 55" Basic</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>High quality ASUS X39 Gray. Official distributor.</t>
+          <t>High quality Huawei X34 55" Basic. Official distributor.</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4459.92</v>
+        <v>1915.78</v>
       </c>
       <c r="D50" t="n">
-        <v>3167.51</v>
+        <v>1475.58</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Электроника &gt; Laptop Computer</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Philips Cleaning (Basic)</t>
+          <t>LG Laundry (Basic)</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Professional Philips Cleaning (Basic). New model.</t>
+          <t>Professional LG Laundry (Basic). Best price.</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>461.37</v>
+        <v>3834.39</v>
       </c>
       <c r="D51" t="n">
-        <v>351.91</v>
+        <v>3246.61</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Accessories Logitech X35</t>
+          <t>Dyson Climate Control Pro12</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Durable Accessories Logitech X35. New model.</t>
+          <t>High quality Dyson Climate Control Pro12. With warranty.</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1527.43</v>
+        <v>3033.18</v>
       </c>
       <c r="D52" t="n">
-        <v>1244.15</v>
+        <v>2530.3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lenovo X20 (Premium)</t>
+          <t>Metabo Professional Garden</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>High quality Lenovo X20 (Premium). With warranty.</t>
+          <t>Professional Metabo Professional Garden. New model.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2571</v>
+        <v>4899.82</v>
       </c>
       <c r="D53" t="n">
-        <v>1892.68</v>
+        <v>3830.34</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Электроника &gt; Laptops</t>
+          <t>Инструменты &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Xiaomi S12 Climate Control</t>
+          <t>Philips Laundry (Max)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Premium Xiaomi S12 Climate Control. Official distributor.</t>
+          <t>Premium Philips Laundry (Max). New model.</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3839.77</v>
+        <v>4105.44</v>
       </c>
       <c r="D54" t="n">
-        <v>3059.69</v>
+        <v>3204.87</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Canon X17 Furniture</t>
+          <t>Metabo Garden X40</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Reliable Canon X17 Furniture. Best price.</t>
+          <t>Professional Metabo Garden X40. Fast shipping.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>267.14</v>
+        <v>545.95</v>
       </c>
       <c r="D55" t="n">
-        <v>217.63</v>
+        <v>449.86</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ASUS S23 65" Plus</t>
+          <t>DeWalt S20 Power Tools</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Reliable ASUS S23 65" Plus. Official distributor.</t>
+          <t>Durable DeWalt S20 Power Tools. Best price.</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3925.66</v>
+        <v>1918.76</v>
       </c>
       <c r="D56" t="n">
-        <v>3109.76</v>
+        <v>1490.66</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Hardware &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ASUS X44 55" Plus</t>
+          <t>DeWalt X26 Power Tools</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Reliable ASUS X44 55" Plus. Best price.</t>
+          <t>Durable DeWalt X26 Power Tools. Best price.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2691.4</v>
+        <v>606.76</v>
       </c>
       <c r="D57" t="n">
-        <v>2054.85</v>
+        <v>477.82</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Apple X48 White</t>
+          <t>Makita Safety X9</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Premium Apple X48 White. New model.</t>
+          <t>Professional Makita Safety X9. Fast shipping.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1128.46</v>
+        <v>2950.36</v>
       </c>
       <c r="D58" t="n">
-        <v>953.36</v>
+        <v>2485.4</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Logitech X13 Accessories</t>
+          <t>Milwaukee Pro14 Power Tools</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Professional Logitech X13 Accessories. Best price.</t>
+          <t>High quality Milwaukee Pro14 Power Tools. New model.</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4915.14</v>
+        <v>3962.55</v>
       </c>
       <c r="D59" t="n">
-        <v>3480.93</v>
+        <v>2897.18</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Accessories Canon X7</t>
+          <t>DeWalt S18 Safety</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Premium Accessories Canon X7. With warranty.</t>
+          <t>Premium DeWalt S18 Safety. Best price.</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1242.64</v>
+        <v>4584.51</v>
       </c>
       <c r="D60" t="n">
-        <v>968.65</v>
+        <v>3438.11</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bosch Cleaning (Air)</t>
+          <t>Huawei X29 Red</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Durable Bosch Cleaning (Air). Best price.</t>
+          <t>Professional Huawei X29 Red. New model.</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3664.82</v>
+        <v>2737.11</v>
       </c>
       <c r="D61" t="n">
-        <v>2847.72</v>
+        <v>2196.48</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Электроника &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Accessories Epson X5</t>
+          <t>Canon Furniture X42</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Durable Accessories Epson X5. Fast shipping.</t>
+          <t>Professional Canon Furniture X42. With warranty.</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2906.64</v>
+        <v>3285.83</v>
       </c>
       <c r="D62" t="n">
-        <v>2066.04</v>
+        <v>2314.78</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Makita Professional Safety</t>
+          <t>Dyson S29 Laundry</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Durable Makita Professional Safety. With warranty.</t>
+          <t>High quality Dyson S29 Laundry. With warranty.</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3119.83</v>
+        <v>4322.02</v>
       </c>
       <c r="D63" t="n">
-        <v>2636.96</v>
+        <v>3613.49</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Samsung X5 17" Plus</t>
+          <t>Bosch Cleaning X48</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Durable Samsung X5 17" Plus. New model.</t>
+          <t>High quality Bosch Cleaning X48. With warranty.</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>928.75</v>
+        <v>2845.73</v>
       </c>
       <c r="D64" t="n">
-        <v>704.33</v>
+        <v>2080.84</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Metabo Professional Safety</t>
+          <t>Canon X43 Supplies</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Durable Metabo Professional Safety. Best price.</t>
+          <t>Premium Canon X43 Supplies. Best price.</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4894.24</v>
+        <v>2945.96</v>
       </c>
       <c r="D65" t="n">
-        <v>3932.88</v>
+        <v>2304.62</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hardware &gt; Safety</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lenovo X47 55" Ultra</t>
+          <t>HP Furniture Pro8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Durable Lenovo X47 55" Ultra. New model.</t>
+          <t>Premium HP Furniture Pro8. New model.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2459.09</v>
+        <v>543.15</v>
       </c>
       <c r="D66" t="n">
-        <v>2042.76</v>
+        <v>393.96</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Electronics &gt; Смартфоны</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Logitech S16 Supplies</t>
+          <t>Dyson Laundry S9</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Durable Logitech S16 Supplies. Best price.</t>
+          <t>Premium Dyson Laundry S9. Best price.</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3178.53</v>
+        <v>852.22</v>
       </c>
       <c r="D67" t="n">
-        <v>2394.33</v>
+        <v>666.51</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Xiaomi Climate Control X34</t>
+          <t>Printers HP Pro3</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Climate Control X34. Best price.</t>
+          <t>Premium Printers HP Pro3. Best price.</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2455.82</v>
+        <v>2913.84</v>
       </c>
       <c r="D68" t="n">
-        <v>1840.24</v>
+        <v>2154.75</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Xiaomi X35 (Premium)</t>
+          <t>HP Pro17 Accessories</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi X35 (Premium). Fast shipping.</t>
+          <t>Reliable HP Pro17 Accessories. New model.</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1137.43</v>
+        <v>3025.92</v>
       </c>
       <c r="D69" t="n">
-        <v>807.63</v>
+        <v>2351.19</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bosch X43 Cleaning</t>
+          <t>Huawei X43 (Basic)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Reliable Bosch X43 Cleaning. Fast shipping.</t>
+          <t>Durable Huawei X43 (Basic). With warranty.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1684.18</v>
+        <v>3661.91</v>
       </c>
       <c r="D70" t="n">
-        <v>1324.51</v>
+        <v>2882.56</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Logitech Supplies X30</t>
+          <t>Furniture Epson Pro14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Durable Logitech Supplies X30. Official distributor.</t>
+          <t>Professional Furniture Epson Pro14. New model.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3958.99</v>
+        <v>3459.15</v>
       </c>
       <c r="D71" t="n">
-        <v>2792.86</v>
+        <v>2803.9</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Metabo Professional Power Tools</t>
+          <t>ASUS X46 32" Plus</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Reliable Metabo Professional Power Tools. Best price.</t>
+          <t>Reliable ASUS X46 32" Plus. Best price.</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1216.49</v>
+        <v>29.13</v>
       </c>
       <c r="D72" t="n">
-        <v>903.86</v>
+        <v>21.65</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Tools &gt; Power Tools</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Metabo Power Tools X13</t>
+          <t>Milwaukee Professional Power Tools</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Professional Metabo Power Tools X13. New model.</t>
+          <t>Durable Milwaukee Professional Power Tools. Best price.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>730.78</v>
+        <v>2946.98</v>
       </c>
       <c r="D73" t="n">
-        <v>612.6799999999999</v>
+        <v>2075.58</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Power Tools &gt; Power Tools</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Huawei X34 (Max)</t>
+          <t>LG Kitchen X21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Premium Huawei X34 (Max). New model.</t>
+          <t>Professional LG Kitchen X21. Best price.</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1067.99</v>
+        <v>2336.47</v>
       </c>
       <c r="D74" t="n">
-        <v>833.88</v>
+        <v>1728.08</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lenovo Pro17 Blue</t>
+          <t>Samsung X34 32" Pro</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Professional Lenovo Pro17 Blue. Official distributor.</t>
+          <t>High quality Samsung X34 32" Pro. With warranty.</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3450.27</v>
+        <v>868.11</v>
       </c>
       <c r="D75" t="n">
-        <v>2554.94</v>
+        <v>664.79</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Electronics &gt; Laptop Computer</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HP Printers X40</t>
+          <t>Philips Climate Control (Basic)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Premium HP Printers X40. Best price.</t>
+          <t>High quality Philips Climate Control (Basic). Best price.</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3868.13</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>2815.56</v>
+        <v>56.95</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Dyson Cleaning (Max)</t>
+          <t>Samsung S15 Kitchen</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Reliable Dyson Cleaning (Max). Official distributor.</t>
+          <t>Premium Samsung S15 Kitchen. With warranty.</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1139.53</v>
+        <v>2557.54</v>
       </c>
       <c r="D77" t="n">
-        <v>946.3200000000001</v>
+        <v>1997.8</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Appliances &gt; Cleaning</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bosch X8 Safety</t>
+          <t>Samsung Pro16 White</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Professional Bosch X8 Safety. Fast shipping.</t>
+          <t>High quality Samsung Pro16 White. Best price.</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>133.76</v>
+        <v>1548.19</v>
       </c>
       <c r="D78" t="n">
-        <v>97.75</v>
+        <v>1122.44</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Metabo Safety Pro6</t>
+          <t>Xiaomi S22 Kitchen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Durable Metabo Safety Pro6. Best price.</t>
+          <t>Premium Xiaomi S22 Kitchen. Best price.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3944.7</v>
+        <v>1242.07</v>
       </c>
       <c r="D79" t="n">
-        <v>2882.68</v>
+        <v>1046.99</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bosch Laundry (Plus)</t>
+          <t>Milwaukee S18 Garden</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Professional Bosch Laundry (Plus). New model.</t>
+          <t>Professional Milwaukee S18 Garden. New model.</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3490.84</v>
+        <v>4108.72</v>
       </c>
       <c r="D80" t="n">
-        <v>2485.37</v>
+        <v>2888.52</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Philips X39 Cleaning</t>
+          <t>Furniture HP X42</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>High quality Philips X39 Cleaning. With warranty.</t>
+          <t>Professional Furniture HP X42. Fast shipping.</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1762.91</v>
+        <v>1225.07</v>
       </c>
       <c r="D81" t="n">
-        <v>1302.5</v>
+        <v>953.49</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Cleaning</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Bosch Cleaning X42</t>
+          <t>Dyson Climate Control (Max)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Reliable Bosch Cleaning X42. Official distributor.</t>
+          <t>Reliable Dyson Climate Control (Max). Fast shipping.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4815.08</v>
+        <v>38.4</v>
       </c>
       <c r="D82" t="n">
-        <v>3378.89</v>
+        <v>27.31</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Cleaning</t>
+          <t>Бытовая техника &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ASUS Pro11 (Max)</t>
+          <t>Apple X47 (Pro)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Reliable ASUS Pro11 (Max). With warranty.</t>
+          <t>Professional Apple X47 (Pro). Official distributor.</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>897.59</v>
+        <v>2866.18</v>
       </c>
       <c r="D83" t="n">
-        <v>655.22</v>
+        <v>2202.06</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Electronics &gt; Phones</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epson X44 Printers</t>
+          <t>Milwaukee Hand Tools X18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>High quality Epson X44 Printers. With warranty.</t>
+          <t>Professional Milwaukee Hand Tools X18. Fast shipping.</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>851.8099999999999</v>
+        <v>1856.16</v>
       </c>
       <c r="D84" t="n">
-        <v>686.3099999999999</v>
+        <v>1477.17</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Power Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Accessories Canon X13</t>
+          <t>Milwaukee Pro13 Garden</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Durable Accessories Canon X13. Fast shipping.</t>
+          <t>High quality Milwaukee Pro13 Garden. With warranty.</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1478.14</v>
+        <v>2609.23</v>
       </c>
       <c r="D85" t="n">
-        <v>1112.06</v>
+        <v>2002.95</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Huawei S9 13" Ultra</t>
+          <t>Bosch Professional Safety</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Reliable Huawei S9 13" Ultra. Official distributor.</t>
+          <t>High quality Bosch Professional Safety. Fast shipping.</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>140.35</v>
+        <v>927.46</v>
       </c>
       <c r="D86" t="n">
-        <v>99.87</v>
+        <v>683.63</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Samsung Climate Control (Premium)</t>
+          <t>Philips Laundry (Ultra)</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Premium Samsung Climate Control (Premium). Official distributor.</t>
+          <t>High quality Philips Laundry (Ultra). New model.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2239.24</v>
+        <v>421.43</v>
       </c>
       <c r="D87" t="n">
-        <v>1596.38</v>
+        <v>296.49</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Appliances &gt; Climate Control</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Xiaomi S20 (Basic)</t>
+          <t>Furniture Dell S7</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi S20 (Basic). Best price.</t>
+          <t>High quality Furniture Dell S7. Fast shipping.</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3162.71</v>
+        <v>3214.01</v>
       </c>
       <c r="D88" t="n">
-        <v>2500.58</v>
+        <v>2535.27</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LG Pro15 Climate Control</t>
+          <t>ASUS S10 (Max)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Durable LG Pro15 Climate Control. Official distributor.</t>
+          <t>Premium ASUS S10 (Max). With warranty.</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2474.66</v>
+        <v>3609.06</v>
       </c>
       <c r="D89" t="n">
-        <v>1934.47</v>
+        <v>2831.39</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Bosch Professional Hand Tools</t>
+          <t>Printers Epson S19</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Premium Bosch Professional Hand Tools. Official distributor.</t>
+          <t>Premium Printers Epson S19. With warranty.</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>49.9</v>
+        <v>3750.26</v>
       </c>
       <c r="D90" t="n">
-        <v>41.19</v>
+        <v>2629.07</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Logitech Accessories X34</t>
+          <t>Huawei X1 (Pro)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Premium Logitech Accessories X34. Official distributor.</t>
+          <t>Durable Huawei X1 (Pro). Official distributor.</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>860.5599999999999</v>
+        <v>1654.71</v>
       </c>
       <c r="D91" t="n">
-        <v>666.78</v>
+        <v>1238.7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Electronic &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Logitech Pro2 Printers</t>
+          <t>Dyson S11 Cleaning</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Reliable Logitech Pro2 Printers. Fast shipping.</t>
+          <t>High quality Dyson S11 Cleaning. With warranty.</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4689.93</v>
+        <v>2365.18</v>
       </c>
       <c r="D92" t="n">
-        <v>3465.11</v>
+        <v>1690.82</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Xiaomi Laundry (Pro)</t>
+          <t>Philips Laundry X40</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi Laundry (Pro). With warranty.</t>
+          <t>Professional Philips Laundry X40. Official distributor.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3037.24</v>
+        <v>984.28</v>
       </c>
       <c r="D93" t="n">
-        <v>2241.12</v>
+        <v>811.83</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2587,249 +2587,249 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Lenovo X26 Blue</t>
+          <t>Makita Professional Power Tools</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Durable Lenovo X26 Blue. With warranty.</t>
+          <t>Premium Makita Professional Power Tools. New model.</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2476.99</v>
+        <v>458.83</v>
       </c>
       <c r="D94" t="n">
-        <v>1985.09</v>
+        <v>329.72</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Metabo X7 Hand Tools</t>
+          <t>Furniture Canon Pro14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Premium Metabo X7 Hand Tools. New model.</t>
+          <t>High quality Furniture Canon Pro14. Best price.</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3435.52</v>
+        <v>518.84</v>
       </c>
       <c r="D95" t="n">
-        <v>2576.39</v>
+        <v>434.11</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DeWalt S29 Safety</t>
+          <t>HP S1 Furniture</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Durable DeWalt S29 Safety. Official distributor.</t>
+          <t>Durable HP S1 Furniture. Official distributor.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2639.48</v>
+        <v>378.06</v>
       </c>
       <c r="D96" t="n">
-        <v>2200.91</v>
+        <v>279.14</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Hardware &gt; Safety</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Philips S6 Laundry</t>
+          <t>Dell Pro15 Supplies</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Premium Philips S6 Laundry. Official distributor.</t>
+          <t>Professional Dell Pro15 Supplies. New model.</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>900.05</v>
+        <v>1089.23</v>
       </c>
       <c r="D97" t="n">
-        <v>729.17</v>
+        <v>916.36</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Huawei S12 Black</t>
+          <t>Huawei X28 Gray</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Premium Huawei S12 Black. Best price.</t>
+          <t>Premium Huawei X28 Gray. New model.</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>276.46</v>
+        <v>2732.73</v>
       </c>
       <c r="D98" t="n">
-        <v>210.28</v>
+        <v>2267.88</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Электроника &gt; Notebook</t>
+          <t>Electronic &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Apple S16 55" Premium</t>
+          <t>Apple S4 (Pro)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>High quality Apple S16 55" Premium. Official distributor.</t>
+          <t>Professional Apple S4 (Pro). Best price.</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3703.61</v>
+        <v>344.06</v>
       </c>
       <c r="D99" t="n">
-        <v>2769.94</v>
+        <v>267.73</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Electronics &gt; Notebook</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Xiaomi Climate Control X20</t>
+          <t>Xiaomi Pro4 (Basic)</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>High quality Xiaomi Climate Control X20. Official distributor.</t>
+          <t>Professional Xiaomi Pro4 (Basic). Official distributor.</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4564.06</v>
+        <v>1935.51</v>
       </c>
       <c r="D100" t="n">
-        <v>3364.32</v>
+        <v>1482.77</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Climate Control</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Philips Laundry Pro8</t>
+          <t>Xiaomi Climate Control Pro2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Premium Philips Laundry Pro8. New model.</t>
+          <t>Durable Xiaomi Climate Control Pro2. Best price.</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>322.46</v>
+        <v>1121.47</v>
       </c>
       <c r="D101" t="n">
-        <v>268.43</v>
+        <v>909.45</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epson S10 Furniture</t>
+          <t>Makita Professional Hand Tools</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Reliable Epson S10 Furniture. Official distributor.</t>
+          <t>Premium Makita Professional Hand Tools. Best price.</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1078.75</v>
+        <v>381.27</v>
       </c>
       <c r="D102" t="n">
-        <v>797.05</v>
+        <v>301.43</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Xiaomi X19 White</t>
+          <t>Furniture HP X19</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Durable Xiaomi X19 White. New model.</t>
+          <t>Reliable Furniture HP X19. Best price.</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>795.0700000000001</v>
+        <v>4215.45</v>
       </c>
       <c r="D103" t="n">
-        <v>568.36</v>
+        <v>2972.71</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Samsung Kitchen (Plus)</t>
+          <t>LG Kitchen (Max)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>High quality Samsung Kitchen (Plus). With warranty.</t>
+          <t>Reliable LG Kitchen (Max). New model.</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4421.04</v>
+        <v>1383.35</v>
       </c>
       <c r="D104" t="n">
-        <v>3714.34</v>
+        <v>1078.7</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2840,1169 +2840,1169 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dell X14 Printers</t>
+          <t>Lenovo X46 15.6" Ultra</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Reliable Dell X14 Printers. Best price.</t>
+          <t>Durable Lenovo X46 15.6" Ultra. Official distributor.</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>4407.34</v>
+        <v>4208.82</v>
       </c>
       <c r="D105" t="n">
-        <v>3099.93</v>
+        <v>3154.86</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Xiaomi S4 Kitchen</t>
+          <t>Apple X36 (Air)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Premium Xiaomi S4 Kitchen. Fast shipping.</t>
+          <t>Premium Apple X36 (Air). Best price.</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3868.65</v>
+        <v>3157.21</v>
       </c>
       <c r="D106" t="n">
-        <v>2753.75</v>
+        <v>2498.92</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Electronic &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Makita Garden Pro17</t>
+          <t>Dell S1 Supplies</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>High quality Makita Garden Pro17. New model.</t>
+          <t>Premium Dell S1 Supplies. With warranty.</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1522.69</v>
+        <v>1702.19</v>
       </c>
       <c r="D107" t="n">
-        <v>1222.13</v>
+        <v>1357.69</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Makita Garden Pro7</t>
+          <t>Xiaomi X26 17" Basic</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Professional Makita Garden Pro7. Official distributor.</t>
+          <t>Professional Xiaomi X26 17" Basic. New model.</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1193.72</v>
+        <v>4718.63</v>
       </c>
       <c r="D108" t="n">
-        <v>925.33</v>
+        <v>3927.47</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Electronics/Gadgets &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dell Supplies X48</t>
+          <t>Bosch X3 Safety</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Reliable Dell Supplies X48. Best price.</t>
+          <t>High quality Bosch X3 Safety. Official distributor.</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2624.11</v>
+        <v>1519.15</v>
       </c>
       <c r="D109" t="n">
-        <v>2041.6</v>
+        <v>1278.45</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Huawei X18 (Basic)</t>
+          <t>Metabo X33 Hand Tools</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>High quality Huawei X18 (Basic). Fast shipping.</t>
+          <t>High quality Metabo X33 Hand Tools. New model.</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1427.85</v>
+        <v>2879.45</v>
       </c>
       <c r="D110" t="n">
-        <v>1186.66</v>
+        <v>2276.63</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Инструменты &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bosch X13 Hand Tools</t>
+          <t>Milwaukee Hand Tools Pro3</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>High quality Bosch X13 Hand Tools. Fast shipping.</t>
+          <t>Premium Milwaukee Hand Tools Pro3. Fast shipping.</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2734.48</v>
+        <v>627.63</v>
       </c>
       <c r="D111" t="n">
-        <v>2017.01</v>
+        <v>485.54</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Hardware &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DeWalt Garden X16</t>
+          <t>Bosch Climate Control (Air)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Reliable DeWalt Garden X16. Best price.</t>
+          <t>Reliable Bosch Climate Control (Air). New model.</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3061.34</v>
+        <v>1686.78</v>
       </c>
       <c r="D112" t="n">
-        <v>2542.96</v>
+        <v>1216.96</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Home &amp; Kitchen &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ASUS X41 Black</t>
+          <t>ASUS S15 (Basic)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>High quality ASUS X41 Black. New model.</t>
+          <t>High quality ASUS S15 (Basic). Fast shipping.</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3771.17</v>
+        <v>3377.12</v>
       </c>
       <c r="D113" t="n">
-        <v>2676.39</v>
+        <v>2822.25</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Electronic &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Xiaomi S1 Kitchen</t>
+          <t>Metabo Garden Pro17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi S1 Kitchen. New model.</t>
+          <t>Professional Metabo Garden Pro17. Official distributor.</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1082.99</v>
+        <v>2038.14</v>
       </c>
       <c r="D114" t="n">
-        <v>894.96</v>
+        <v>1690.47</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Hardware &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dyson Cleaning (Premium)</t>
+          <t>ASUS Pro11 Gray</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Professional Dyson Cleaning (Premium). Fast shipping.</t>
+          <t>Premium ASUS Pro11 Gray. New model.</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3900.28</v>
+        <v>2939.02</v>
       </c>
       <c r="D115" t="n">
-        <v>2760.51</v>
+        <v>2341.32</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Electronics/Gadgets &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Bosch X18 Safety</t>
+          <t>Logitech Furniture X14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Premium Bosch X18 Safety. Fast shipping.</t>
+          <t>Durable Logitech Furniture X14. Official distributor.</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4489.32</v>
+        <v>4143.72</v>
       </c>
       <c r="D116" t="n">
-        <v>3759.46</v>
+        <v>3111.51</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Hardware &gt; Safety</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Bosch Professional Garden</t>
+          <t>Philips X8 Laundry</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Premium Bosch Professional Garden. Fast shipping.</t>
+          <t>High quality Philips X8 Laundry. With warranty.</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1833.5</v>
+        <v>782.83</v>
       </c>
       <c r="D117" t="n">
-        <v>1343.7</v>
+        <v>578.67</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Power Tools &gt; Garden</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Furniture HP S9</t>
+          <t>Milwaukee X30 Safety</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>High quality Furniture HP S9. With warranty.</t>
+          <t>Professional Milwaukee X30 Safety. Official distributor.</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2041.67</v>
+        <v>2757.05</v>
       </c>
       <c r="D118" t="n">
-        <v>1668.11</v>
+        <v>2179.68</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Makita Professional Garden</t>
+          <t>Philips Climate Control (Pro)</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Premium Makita Professional Garden. Best price.</t>
+          <t>Professional Philips Climate Control (Pro). New model.</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4902.51</v>
+        <v>3493.41</v>
       </c>
       <c r="D119" t="n">
-        <v>3786.22</v>
+        <v>2580.61</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Xiaomi S7 Climate Control</t>
+          <t>DeWalt X12 Safety</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Durable Xiaomi S7 Climate Control. Fast shipping.</t>
+          <t>Professional DeWalt X12 Safety. Fast shipping.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3585.28</v>
+        <v>749.53</v>
       </c>
       <c r="D120" t="n">
-        <v>2793.36</v>
+        <v>556.39</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Climate Control</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Samsung Laundry Pro11</t>
+          <t>Milwaukee Safety X21</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>High quality Samsung Laundry Pro11. With warranty.</t>
+          <t>Reliable Milwaukee Safety X21. Best price.</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1034.36</v>
+        <v>4384.34</v>
       </c>
       <c r="D121" t="n">
-        <v>819.49</v>
+        <v>3316.54</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Apple Pro16 (Lite)</t>
+          <t>Makita Power Tools S13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Professional Apple Pro16 (Lite). Fast shipping.</t>
+          <t>Durable Makita Power Tools S13. With warranty.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>4454.38</v>
+        <v>660.75</v>
       </c>
       <c r="D122" t="n">
-        <v>3288.49</v>
+        <v>502.76</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Canon X18 Furniture</t>
+          <t>Milwaukee Safety S19</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>High quality Canon X18 Furniture. Best price.</t>
+          <t>Premium Milwaukee Safety S19. Official distributor.</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1643.43</v>
+        <v>1081.18</v>
       </c>
       <c r="D123" t="n">
-        <v>1318.3</v>
+        <v>798.28</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Bosch Pro18 Climate Control</t>
+          <t>Xiaomi Kitchen (Lite)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Premium Bosch Pro18 Climate Control. Official distributor.</t>
+          <t>Reliable Xiaomi Kitchen (Lite). New model.</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>617.42</v>
+        <v>1155.2</v>
       </c>
       <c r="D124" t="n">
-        <v>517.84</v>
+        <v>878.12</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Xiaomi S9 Black</t>
+          <t>Huawei X38 15.6" Max</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Durable Xiaomi S9 Black. Fast shipping.</t>
+          <t>Durable Huawei X38 15.6" Max. With warranty.</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4854.78</v>
+        <v>4601.08</v>
       </c>
       <c r="D125" t="n">
-        <v>3566.56</v>
+        <v>3554.31</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dyson X18 Laundry</t>
+          <t>Lenovo S12 (Ultra)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Premium Dyson X18 Laundry. Fast shipping.</t>
+          <t>Reliable Lenovo S12 (Ultra). New model.</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>247.81</v>
+        <v>1016.12</v>
       </c>
       <c r="D126" t="n">
-        <v>204.61</v>
+        <v>854.8</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Laundry</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Dyson X28 Laundry</t>
+          <t>HP S9 Supplies</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>High quality Dyson X28 Laundry. New model.</t>
+          <t>Professional HP S9 Supplies. Best price.</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1250.72</v>
+        <v>887.4299999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>1008.54</v>
+        <v>703.1900000000001</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Appliances &gt; Laundry</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lenovo X23 (Plus)</t>
+          <t>HP Accessories X7</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Durable Lenovo X23 (Plus). Official distributor.</t>
+          <t>Professional HP Accessories X7. Best price.</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3201.25</v>
+        <v>414.64</v>
       </c>
       <c r="D128" t="n">
-        <v>2684.35</v>
+        <v>319.27</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HP Printers S11</t>
+          <t>LG X15 Climate Control</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Premium HP Printers S11. With warranty.</t>
+          <t>Reliable LG X15 Climate Control. Fast shipping.</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1212.32</v>
+        <v>1633.86</v>
       </c>
       <c r="D129" t="n">
-        <v>939.86</v>
+        <v>1328.07</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Бытовая техника &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Bosch Climate Control S29</t>
+          <t>LG Cleaning (Plus)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Durable Bosch Climate Control S29. Official distributor.</t>
+          <t>High quality LG Cleaning (Plus). Official distributor.</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>850.79</v>
+        <v>1610.3</v>
       </c>
       <c r="D130" t="n">
-        <v>613.33</v>
+        <v>1258.13</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Metabo X28 Safety</t>
+          <t>Canon S2 Printers</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Durable Metabo X28 Safety. Official distributor.</t>
+          <t>Premium Canon S2 Printers. Fast shipping.</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1482.93</v>
+        <v>4731.74</v>
       </c>
       <c r="D131" t="n">
-        <v>1109.8</v>
+        <v>3492.22</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Milwaukee Professional Safety</t>
+          <t>Samsung Kitchen (Lite)</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>High quality Milwaukee Professional Safety. Fast shipping.</t>
+          <t>Professional Samsung Kitchen (Lite). Official distributor.</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2177.36</v>
+        <v>4860.88</v>
       </c>
       <c r="D132" t="n">
-        <v>1768.47</v>
+        <v>3893.67</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HP X16 Furniture</t>
+          <t>Samsung X43 Climate Control</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Reliable HP X16 Furniture. Official distributor.</t>
+          <t>High quality Samsung X43 Climate Control. New model.</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>4039.21</v>
+        <v>3080.22</v>
       </c>
       <c r="D133" t="n">
-        <v>2936.64</v>
+        <v>2446.22</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Huawei S23 (Premium)</t>
+          <t>ASUS S17 White</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Premium Huawei S23 (Premium). Best price.</t>
+          <t>Premium ASUS S17 White. Best price.</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>4821.69</v>
+        <v>2494.55</v>
       </c>
       <c r="D134" t="n">
-        <v>3561.98</v>
+        <v>1798.08</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Electronics/Gadgets &gt; Accessories</t>
+          <t>Electronics/Gadgets &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Dell X30 Supplies</t>
+          <t>Logitech Pro18 Furniture</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Reliable Dell X30 Supplies. With warranty.</t>
+          <t>High quality Logitech Pro18 Furniture. Fast shipping.</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>822.5700000000001</v>
+        <v>4318.01</v>
       </c>
       <c r="D135" t="n">
-        <v>584.3</v>
+        <v>3526.58</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Xiaomi Cleaning (Ultra)</t>
+          <t>Huawei S27 Gray</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Cleaning (Ultra). With warranty.</t>
+          <t>Durable Huawei S27 Gray. Best price.</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3984.29</v>
+        <v>1497.04</v>
       </c>
       <c r="D136" t="n">
-        <v>3289.98</v>
+        <v>1136.53</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Cleaning</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Bosch S15 Power Tools</t>
+          <t>Philips X27 Climate Control</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Premium Bosch S15 Power Tools. Best price.</t>
+          <t>Reliable Philips X27 Climate Control. With warranty.</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2996.06</v>
+        <v>2407.47</v>
       </c>
       <c r="D137" t="n">
-        <v>2504.08</v>
+        <v>1898.44</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Tools &gt; Power Tools</t>
+          <t>Бытовая техника &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Makita S3 Safety</t>
+          <t>Bosch Pro15 Cleaning</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Professional Makita S3 Safety. New model.</t>
+          <t>Premium Bosch Pro15 Cleaning. Official distributor.</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4162.81</v>
+        <v>2014.09</v>
       </c>
       <c r="D138" t="n">
-        <v>3364.05</v>
+        <v>1579.47</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Makita X49 Power Tools</t>
+          <t>Samsung Climate Control (Air)</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Durable Makita X49 Power Tools. Best price.</t>
+          <t>Professional Samsung Climate Control (Air). Official distributor.</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2067.33</v>
+        <v>2768.88</v>
       </c>
       <c r="D139" t="n">
-        <v>1534.54</v>
+        <v>2133.68</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Power Tools &gt; Power Tools</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Bosch Climate Control S27</t>
+          <t>Accessories Canon Pro11</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Premium Bosch Climate Control S27. New model.</t>
+          <t>Premium Accessories Canon Pro11. With warranty.</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>450.41</v>
+        <v>2944.3</v>
       </c>
       <c r="D140" t="n">
-        <v>367.31</v>
+        <v>2462.22</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Canon Printers X20</t>
+          <t>Furniture Canon Pro2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Professional Canon Printers X20. Official distributor.</t>
+          <t>Premium Furniture Canon Pro2. Official distributor.</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>824.27</v>
+        <v>455.59</v>
       </c>
       <c r="D141" t="n">
-        <v>635.38</v>
+        <v>348.73</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Bosch S28 Cleaning</t>
+          <t>HP S20 Furniture</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Professional Bosch S28 Cleaning. With warranty.</t>
+          <t>High quality HP S20 Furniture. With warranty.</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4375.62</v>
+        <v>653.02</v>
       </c>
       <c r="D142" t="n">
-        <v>3521.8</v>
+        <v>527.33</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Huawei X16 (Air)</t>
+          <t>Metabo Garden X15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Professional Huawei X16 (Air). Official distributor.</t>
+          <t>Durable Metabo Garden X15. Best price.</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>497.16</v>
+        <v>1244.81</v>
       </c>
       <c r="D143" t="n">
-        <v>392.39</v>
+        <v>905.88</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Electronics &gt; Notebook</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Metabo X44 Safety</t>
+          <t>Philips Climate Control (Premium)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Durable Metabo X44 Safety. New model.</t>
+          <t>Durable Philips Climate Control (Premium). Fast shipping.</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2120.48</v>
+        <v>1248.27</v>
       </c>
       <c r="D144" t="n">
-        <v>1585.44</v>
+        <v>957.17</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Apple X2 27" Max</t>
+          <t>ASUS S16 (Premium)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Professional Apple X2 27" Max. With warranty.</t>
+          <t>Durable ASUS S16 (Premium). Fast shipping.</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1215.2</v>
+        <v>2186.7</v>
       </c>
       <c r="D145" t="n">
-        <v>952.85</v>
+        <v>1751.9</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Electronics/Gadgets &gt; Smartphones</t>
+          <t>Electronics &gt; Ноутбуки</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Bosch X36 Power Tools</t>
+          <t>Dell Pro16 Supplies</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Premium Bosch X36 Power Tools. New model.</t>
+          <t>High quality Dell Pro16 Supplies. New model.</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3752.75</v>
+        <v>2265.63</v>
       </c>
       <c r="D146" t="n">
-        <v>2781.63</v>
+        <v>1697.74</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Xiaomi X17 32" Ultra</t>
+          <t>Lenovo X15 Blue</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>High quality Xiaomi X17 32" Ultra. Fast shipping.</t>
+          <t>Reliable Lenovo X15 Blue. Fast shipping.</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1308.96</v>
+        <v>2062.53</v>
       </c>
       <c r="D147" t="n">
-        <v>932.63</v>
+        <v>1500.08</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Электроника &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dyson Climate Control (Max)</t>
+          <t>Samsung S29 65" Basic</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Premium Dyson Climate Control (Max). With warranty.</t>
+          <t>Premium Samsung S29 65" Basic. Official distributor.</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1711.8</v>
+        <v>3739.49</v>
       </c>
       <c r="D148" t="n">
-        <v>1444.1</v>
+        <v>2919.2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Electronics &gt; Смартфоны</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lenovo X9 65" Premium</t>
+          <t>Logitech X28 Supplies</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Premium Lenovo X9 65" Premium. New model.</t>
+          <t>High quality Logitech X28 Supplies. Best price.</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3934.3</v>
+        <v>1143.44</v>
       </c>
       <c r="D149" t="n">
-        <v>3017.65</v>
+        <v>962.5700000000001</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dyson Laundry (Max)</t>
+          <t>DeWalt Safety X35</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Premium Dyson Laundry (Max). New model.</t>
+          <t>Reliable DeWalt Safety X35. Official distributor.</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2818.47</v>
+        <v>1557.5</v>
       </c>
       <c r="D150" t="n">
-        <v>2079.05</v>
+        <v>1152.02</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Laundry</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Dell X7 Supplies</t>
+          <t>Samsung X10 (Air)</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Premium Dell X7 Supplies. Fast shipping.</t>
+          <t>Durable Samsung X10 (Air). With warranty.</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1797.27</v>
+        <v>2292.82</v>
       </c>
       <c r="D151" t="n">
-        <v>1373.83</v>
+        <v>1686.75</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Electronic &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>LG Climate Control X33</t>
+          <t>Makita Power Tools X4</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>High quality LG Climate Control X33. Best price.</t>
+          <t>High quality Makita Power Tools X4. Best price.</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>4408.41</v>
+        <v>3181.55</v>
       </c>
       <c r="D152" t="n">
-        <v>3715.3</v>
+        <v>2276.7</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Samsung Pro3 Gray</t>
+          <t>Xiaomi Cleaning (Max)</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Durable Samsung Pro3 Gray. Fast shipping.</t>
+          <t>Durable Xiaomi Cleaning (Max). With warranty.</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>4673.12</v>
+        <v>4071.46</v>
       </c>
       <c r="D153" t="n">
-        <v>3439.87</v>
+        <v>3264.29</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Электроника &gt; Laptops</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bosch X21 Garden</t>
+          <t>Philips S13 Kitchen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Professional Bosch X21 Garden. Fast shipping.</t>
+          <t>Premium Philips S13 Kitchen. Best price.</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>998.87</v>
+        <v>2788.17</v>
       </c>
       <c r="D154" t="n">
-        <v>805.99</v>
+        <v>2352.68</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DeWalt Hand Tools Pro14</t>
+          <t>Milwaukee Professional Hand Tools</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Durable DeWalt Hand Tools Pro14. With warranty.</t>
+          <t>Reliable Milwaukee Professional Hand Tools. Fast shipping.</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1919.19</v>
+        <v>2783.52</v>
       </c>
       <c r="D155" t="n">
-        <v>1491.83</v>
+        <v>2000.15</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4013,203 +4013,203 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Milwaukee Safety Pro8</t>
+          <t>Dyson Cleaning (Lite)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Durable Milwaukee Safety Pro8. New model.</t>
+          <t>High quality Dyson Cleaning (Lite). Fast shipping.</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3791.36</v>
+        <v>2019.48</v>
       </c>
       <c r="D156" t="n">
-        <v>2698.78</v>
+        <v>1591.67</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Бытовая техника &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Canon X29 Furniture</t>
+          <t>Epson S6 Supplies</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>High quality Canon X29 Furniture. New model.</t>
+          <t>High quality Epson S6 Supplies. Fast shipping.</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4299.31</v>
+        <v>410.71</v>
       </c>
       <c r="D157" t="n">
-        <v>3372.06</v>
+        <v>336.34</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ASUS X3 Red</t>
+          <t>Samsung X20 Laundry</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Durable ASUS X3 Red. New model.</t>
+          <t>Reliable Samsung X20 Laundry. With warranty.</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>581.37</v>
+        <v>372.63</v>
       </c>
       <c r="D158" t="n">
-        <v>420.9</v>
+        <v>269.52</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Makita X44 Hand Tools</t>
+          <t>DeWalt Garden X48</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Reliable Makita X44 Hand Tools. With warranty.</t>
+          <t>High quality DeWalt Garden X48. Fast shipping.</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1062.89</v>
+        <v>2379.53</v>
       </c>
       <c r="D159" t="n">
-        <v>866.46</v>
+        <v>1755.44</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Hardware &gt; Hand Tools</t>
+          <t>Hardware &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Metabo S28 Safety</t>
+          <t>Samsung S3 Kitchen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Durable Metabo S28 Safety. Official distributor.</t>
+          <t>High quality Samsung S3 Kitchen. Best price.</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>663.0599999999999</v>
+        <v>2375.05</v>
       </c>
       <c r="D160" t="n">
-        <v>550.27</v>
+        <v>1742.59</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Dell X7 Furniture</t>
+          <t>Apple Pro17 (Ultra)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Professional Dell X7 Furniture. Official distributor.</t>
+          <t>Premium Apple Pro17 (Ultra). New model.</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3594.48</v>
+        <v>3929.3</v>
       </c>
       <c r="D161" t="n">
-        <v>2816.92</v>
+        <v>2936.38</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DeWalt S28 Garden</t>
+          <t>Bosch Laundry (Basic)</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Professional DeWalt S28 Garden. Fast shipping.</t>
+          <t>Reliable Bosch Laundry (Basic). New model.</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1637.5</v>
+        <v>1646.08</v>
       </c>
       <c r="D162" t="n">
-        <v>1342.05</v>
+        <v>1224.38</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Samsung X1 27" Ultra</t>
+          <t>Dyson Climate Control S19</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Professional Samsung X1 27" Ultra. With warranty.</t>
+          <t>High quality Dyson Climate Control S19. Best price.</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1988.86</v>
+        <v>4743.61</v>
       </c>
       <c r="D163" t="n">
-        <v>1663.84</v>
+        <v>3996.82</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Xiaomi Climate Control S2</t>
+          <t>Samsung S16 Climate Control</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Climate Control S2. With warranty.</t>
+          <t>Premium Samsung S16 Climate Control. With warranty.</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>658.99</v>
+        <v>544.48</v>
       </c>
       <c r="D164" t="n">
-        <v>543.77</v>
+        <v>460.87</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -4220,1422 +4220,1422 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Makita Safety X44</t>
+          <t>Huawei S5 White</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Professional Makita Safety X44. New model.</t>
+          <t>Reliable Huawei S5 White. Best price.</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1137.47</v>
+        <v>2234.86</v>
       </c>
       <c r="D165" t="n">
-        <v>893.3099999999999</v>
+        <v>1780.6</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Safety</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Huawei S5 (Plus)</t>
+          <t>Epson Furniture X34</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Professional Huawei S5 (Plus). Official distributor.</t>
+          <t>High quality Epson Furniture X34. New model.</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2612.58</v>
+        <v>3377.66</v>
       </c>
       <c r="D166" t="n">
-        <v>2094.92</v>
+        <v>2508.93</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Apple X21 27" Air</t>
+          <t>Logitech Pro7 Furniture</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Reliable Apple X21 27" Air. Official distributor.</t>
+          <t>Durable Logitech Pro7 Furniture. Official distributor.</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3198.29</v>
+        <v>3658.18</v>
       </c>
       <c r="D167" t="n">
-        <v>2420.85</v>
+        <v>2932.19</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Samsung X8 Gray</t>
+          <t>Supplies Canon X20</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>High quality Samsung X8 Gray. Official distributor.</t>
+          <t>Reliable Supplies Canon X20. New model.</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1315.22</v>
+        <v>107.2</v>
       </c>
       <c r="D168" t="n">
-        <v>992.52</v>
+        <v>84.81</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Epson Printers Pro1</t>
+          <t>Supplies Dell X32</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Professional Epson Printers Pro1. Best price.</t>
+          <t>Professional Supplies Dell X32. Best price.</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2006.08</v>
+        <v>2587.72</v>
       </c>
       <c r="D169" t="n">
-        <v>1523.36</v>
+        <v>2106.88</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Philips Kitchen S28</t>
+          <t>Accessories HP X9</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>High quality Philips Kitchen S28. New model.</t>
+          <t>Professional Accessories HP X9. New model.</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1598.15</v>
+        <v>405.18</v>
       </c>
       <c r="D170" t="n">
-        <v>1218.11</v>
+        <v>340.23</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Philips Climate Control X6</t>
+          <t>Dell X1 Printers</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Durable Philips Climate Control X6. New model.</t>
+          <t>Durable Dell X1 Printers. With warranty.</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2774.26</v>
+        <v>3574.07</v>
       </c>
       <c r="D171" t="n">
-        <v>1984.07</v>
+        <v>2856.3</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Accessories Dell Pro5</t>
+          <t>Canon Furniture Pro2</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Durable Accessories Dell Pro5. With warranty.</t>
+          <t>Professional Canon Furniture Pro2. Official distributor.</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>718.33</v>
+        <v>1292.9</v>
       </c>
       <c r="D172" t="n">
-        <v>560.52</v>
+        <v>1031.55</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Bosch Pro8 Garden</t>
+          <t>ASUS S28 32" Pro</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>High quality Bosch Pro8 Garden. New model.</t>
+          <t>Professional ASUS S28 32" Pro. New model.</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1418.56</v>
+        <v>1932.89</v>
       </c>
       <c r="D173" t="n">
-        <v>1069.91</v>
+        <v>1517.15</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Hardware &gt; Garden</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Canon X43 Printers</t>
+          <t>Makita Professional Safety</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>High quality Canon X43 Printers. New model.</t>
+          <t>High quality Makita Professional Safety. With warranty.</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>4561.63</v>
+        <v>2592.77</v>
       </c>
       <c r="D174" t="n">
-        <v>3210.8</v>
+        <v>2168.83</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Samsung S29 (Pro)</t>
+          <t>Accessories Dell X38</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>High quality Samsung S29 (Pro). Best price.</t>
+          <t>Reliable Accessories Dell X38. Best price.</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3736.05</v>
+        <v>2065.14</v>
       </c>
       <c r="D175" t="n">
-        <v>2939.45</v>
+        <v>1627.63</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Canon S28 Printers</t>
+          <t>Dell Furniture S16</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Premium Canon S28 Printers. Fast shipping.</t>
+          <t>Professional Dell Furniture S16. With warranty.</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2689.81</v>
+        <v>2028.66</v>
       </c>
       <c r="D176" t="n">
-        <v>1959.22</v>
+        <v>1508.33</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Xiaomi S25 Cleaning</t>
+          <t>Metabo S15 Garden</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Reliable Xiaomi S25 Cleaning. Fast shipping.</t>
+          <t>Durable Metabo S15 Garden. Official distributor.</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1304.95</v>
+        <v>97.70999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>969.3</v>
+        <v>68.8</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HP Printers Pro18</t>
+          <t>Apple X1 Red</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>High quality HP Printers Pro18. Best price.</t>
+          <t>Durable Apple X1 Red. With warranty.</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2991.53</v>
+        <v>2201.51</v>
       </c>
       <c r="D178" t="n">
-        <v>2505.9</v>
+        <v>1792.22</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Milwaukee Hand Tools S17</t>
+          <t>Logitech Printers X46</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Premium Milwaukee Hand Tools S17. Best price.</t>
+          <t>Professional Logitech Printers X46. With warranty.</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3893.18</v>
+        <v>3579.84</v>
       </c>
       <c r="D179" t="n">
-        <v>2883.21</v>
+        <v>2908.45</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ASUS X4 15.6" Basic</t>
+          <t>Makita Power Tools X27</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>High quality ASUS X4 15.6" Basic. Official distributor.</t>
+          <t>Premium Makita Power Tools X27. New model.</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1773.07</v>
+        <v>622.36</v>
       </c>
       <c r="D180" t="n">
-        <v>1472.55</v>
+        <v>458.75</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Dyson Kitchen (Plus)</t>
+          <t>Metabo Power Tools X22</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Reliable Dyson Kitchen (Plus). Official distributor.</t>
+          <t>High quality Metabo Power Tools X22. Fast shipping.</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1579.2</v>
+        <v>270.02</v>
       </c>
       <c r="D181" t="n">
-        <v>1245.41</v>
+        <v>212.59</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Samsung X34 Cleaning</t>
+          <t>Samsung X9 Gray</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Premium Samsung X34 Cleaning. New model.</t>
+          <t>Professional Samsung X9 Gray. Official distributor.</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>979.05</v>
+        <v>2910.85</v>
       </c>
       <c r="D182" t="n">
-        <v>771.65</v>
+        <v>2196.56</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ASUS X4 Blue</t>
+          <t>Samsung X18 55" Plus</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Reliable ASUS X4 Blue. New model.</t>
+          <t>High quality Samsung X18 55" Plus. Official distributor.</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>59.16</v>
+        <v>4959.71</v>
       </c>
       <c r="D183" t="n">
-        <v>46.61</v>
+        <v>3866.54</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Electronics &gt; Ноутбуки</t>
+          <t>Electronic &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>LG S26 Laundry</t>
+          <t>Supplies Epson X43</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>High quality LG S26 Laundry. New model.</t>
+          <t>High quality Supplies Epson X43. Best price.</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1740.67</v>
+        <v>3728.98</v>
       </c>
       <c r="D184" t="n">
-        <v>1476.95</v>
+        <v>2995.98</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Bosch Climate Control (Premium)</t>
+          <t>Huawei X46 55" Ultra</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Reliable Bosch Climate Control (Premium). New model.</t>
+          <t>High quality Huawei X46 55" Ultra. Fast shipping.</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>35.37</v>
+        <v>4066.96</v>
       </c>
       <c r="D185" t="n">
-        <v>25.37</v>
+        <v>3320.46</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Electronic &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Canon Pro19 Furniture</t>
+          <t>Dyson Laundry X21</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Durable Canon Pro19 Furniture. Official distributor.</t>
+          <t>Durable Dyson Laundry X21. Best price.</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>4813.67</v>
+        <v>3108.48</v>
       </c>
       <c r="D186" t="n">
-        <v>3630.16</v>
+        <v>2555.4</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Makita Power Tools X33</t>
+          <t>Bosch Pro6 Hand Tools</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>High quality Makita Power Tools X33. Fast shipping.</t>
+          <t>Premium Bosch Pro6 Hand Tools. With warranty.</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3754.67</v>
+        <v>3297.04</v>
       </c>
       <c r="D187" t="n">
-        <v>3025.68</v>
+        <v>2605.28</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Tools &gt; Power Tools</t>
+          <t>Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ASUS X30 (Pro)</t>
+          <t>Canon X33 Accessories</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Reliable ASUS X30 (Pro). Fast shipping.</t>
+          <t>Premium Canon X33 Accessories. Best price.</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3602.57</v>
+        <v>3670.55</v>
       </c>
       <c r="D188" t="n">
-        <v>2679.43</v>
+        <v>2622.89</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Metabo X38 Safety</t>
+          <t>Canon Furniture X25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Reliable Metabo X38 Safety. Fast shipping.</t>
+          <t>Durable Canon Furniture X25. Fast shipping.</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3670.9</v>
+        <v>3101.91</v>
       </c>
       <c r="D189" t="n">
-        <v>2713.22</v>
+        <v>2327.58</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Hardware &gt; Safety</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Canon Printers X5</t>
+          <t>Lenovo X5 Red</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Professional Canon Printers X5. Best price.</t>
+          <t>Durable Lenovo X5 Red. New model.</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1060.51</v>
+        <v>1973.67</v>
       </c>
       <c r="D190" t="n">
-        <v>800.11</v>
+        <v>1588.89</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Xiaomi X12 Kitchen</t>
+          <t>Dell Furniture X19</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Professional Xiaomi X12 Kitchen. Fast shipping.</t>
+          <t>Durable Dell Furniture X19. Official distributor.</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4115.7</v>
+        <v>937.27</v>
       </c>
       <c r="D191" t="n">
-        <v>3420.46</v>
+        <v>777.85</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DeWalt Professional Hand Tools</t>
+          <t>ASUS X20 17" Premium</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Reliable DeWalt Professional Hand Tools. With warranty.</t>
+          <t>Reliable ASUS X20 17" Premium. With warranty.</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4011.75</v>
+        <v>992.33</v>
       </c>
       <c r="D192" t="n">
-        <v>3336.57</v>
+        <v>695.1900000000001</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Furniture HP X44</t>
+          <t>Lenovo Pro9 (Air)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Durable Furniture HP X44. Best price.</t>
+          <t>Premium Lenovo Pro9 (Air). Best price.</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1981.96</v>
+        <v>1677.12</v>
       </c>
       <c r="D193" t="n">
-        <v>1473.66</v>
+        <v>1267.37</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LG Laundry X43</t>
+          <t>DeWalt Garden Pro1</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Professional LG Laundry X43. Fast shipping.</t>
+          <t>Durable DeWalt Garden Pro1. Official distributor.</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3865.88</v>
+        <v>1592.78</v>
       </c>
       <c r="D194" t="n">
-        <v>2867.73</v>
+        <v>1243.87</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Power Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Metabo Pro18 Garden</t>
+          <t>Dyson Kitchen (Lite)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Reliable Metabo Pro18 Garden. Official distributor.</t>
+          <t>Durable Dyson Kitchen (Lite). Fast shipping.</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3482.9</v>
+        <v>4266.69</v>
       </c>
       <c r="D195" t="n">
-        <v>2704.07</v>
+        <v>3100.79</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Бытовая техника &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ASUS S2 (Basic)</t>
+          <t>HP X8 Supplies</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Premium ASUS S2 (Basic). New model.</t>
+          <t>Reliable HP X8 Supplies. With warranty.</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>2042.75</v>
+        <v>4957.08</v>
       </c>
       <c r="D196" t="n">
-        <v>1532.31</v>
+        <v>3824.42</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Electronics &gt; Ноутбуки</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Samsung Pro4 Climate Control</t>
+          <t>Xiaomi S18 Cleaning</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Reliable Samsung Pro4 Climate Control. Fast shipping.</t>
+          <t>High quality Xiaomi S18 Cleaning. New model.</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>142.54</v>
+        <v>4702.3</v>
       </c>
       <c r="D197" t="n">
-        <v>113.19</v>
+        <v>3896.39</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Bosch Cleaning (Lite)</t>
+          <t>Apple S2 (Lite)</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Reliable Bosch Cleaning (Lite). Best price.</t>
+          <t>Professional Apple S2 (Lite). Official distributor.</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2628.53</v>
+        <v>3461.92</v>
       </c>
       <c r="D198" t="n">
-        <v>2101.8</v>
+        <v>2554.21</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Makita X1 Power Tools</t>
+          <t>Canon Pro10 Printers</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Durable Makita X1 Power Tools. With warranty.</t>
+          <t>Premium Canon Pro10 Printers. Official distributor.</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4155.89</v>
+        <v>1941.54</v>
       </c>
       <c r="D199" t="n">
-        <v>3042.38</v>
+        <v>1473.82</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Samsung Kitchen S6</t>
+          <t>Metabo X43 Hand Tools</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Reliable Samsung Kitchen S6. Best price.</t>
+          <t>Professional Metabo X43 Hand Tools. Fast shipping.</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4037.73</v>
+        <v>2949.69</v>
       </c>
       <c r="D200" t="n">
-        <v>3085.73</v>
+        <v>2332.67</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Инструменты &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Canon Supplies X30</t>
+          <t>Bosch S14 Cleaning</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Premium Canon Supplies X30. Official distributor.</t>
+          <t>Professional Bosch S14 Cleaning. Best price.</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4239.31</v>
+        <v>716.58</v>
       </c>
       <c r="D201" t="n">
-        <v>3321.69</v>
+        <v>503.09</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ASUS Pro13 White</t>
+          <t>Logitech S9 Accessories</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>High quality ASUS Pro13 White. Fast shipping.</t>
+          <t>Professional Logitech S9 Accessories. Official distributor.</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1508.34</v>
+        <v>577.9400000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>1226.67</v>
+        <v>441.45</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Xiaomi Cleaning (Pro)</t>
+          <t>Huawei X26 Silver</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Durable Xiaomi Cleaning (Pro). New model.</t>
+          <t>Durable Huawei X26 Silver. Fast shipping.</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1748.96</v>
+        <v>231.76</v>
       </c>
       <c r="D203" t="n">
-        <v>1271.55</v>
+        <v>190.87</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Электроника &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Apple S14 14" Max</t>
+          <t>HP X3 Printers</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Premium Apple S14 14" Max. Fast shipping.</t>
+          <t>High quality HP X3 Printers. With warranty.</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2356.01</v>
+        <v>300.26</v>
       </c>
       <c r="D204" t="n">
-        <v>1730.09</v>
+        <v>231.7</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Электроника &gt; Accessories</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Lenovo S28 27" Plus</t>
+          <t>ASUS Pro1 (Plus)</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Professional Lenovo S28 27" Plus. Best price.</t>
+          <t>Professional ASUS Pro1 (Plus). Fast shipping.</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>4215.27</v>
+        <v>2488.67</v>
       </c>
       <c r="D205" t="n">
-        <v>3405.02</v>
+        <v>2043.67</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Electronic &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ASUS Pro8 Gray</t>
+          <t>Furniture HP X2</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Professional ASUS Pro8 Gray. Best price.</t>
+          <t>Reliable Furniture HP X2. Official distributor.</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>4403.83</v>
+        <v>1227.36</v>
       </c>
       <c r="D206" t="n">
-        <v>3178.12</v>
+        <v>927.7</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Supplies Epson S7</t>
+          <t>Samsung Pro6 (Plus)</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Premium Supplies Epson S7. Best price.</t>
+          <t>Reliable Samsung Pro6 (Plus). Fast shipping.</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1238.39</v>
+        <v>1710.76</v>
       </c>
       <c r="D207" t="n">
-        <v>1038.68</v>
+        <v>1411.45</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Electronics/Gadgets &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Xiaomi X14 65" Ultra</t>
+          <t>HP X22 Supplies</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Professional Xiaomi X14 65" Ultra. Official distributor.</t>
+          <t>High quality HP X22 Supplies. Best price.</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>2020.82</v>
+        <v>2552.73</v>
       </c>
       <c r="D208" t="n">
-        <v>1446.56</v>
+        <v>1940.92</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Logitech Accessories X26</t>
+          <t>Samsung Climate Control Pro2</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Professional Logitech Accessories X26. Official distributor.</t>
+          <t>High quality Samsung Climate Control Pro2. Best price.</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3550.79</v>
+        <v>1311.09</v>
       </c>
       <c r="D209" t="n">
-        <v>2550.96</v>
+        <v>1005.82</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Dyson X48 Laundry</t>
+          <t>Lenovo X10 (Premium)</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Professional Dyson X48 Laundry. New model.</t>
+          <t>Premium Lenovo X10 (Premium). Fast shipping.</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>4324.49</v>
+        <v>4081.5</v>
       </c>
       <c r="D210" t="n">
-        <v>3538.34</v>
+        <v>2877.56</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Laundry</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HP Pro8 Printers</t>
+          <t>LG X42 Kitchen</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Durable HP Pro8 Printers. Official distributor.</t>
+          <t>High quality LG X42 Kitchen. Official distributor.</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3787.47</v>
+        <v>4325.16</v>
       </c>
       <c r="D211" t="n">
-        <v>3047.74</v>
+        <v>3135.98</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DeWalt X23 Safety</t>
+          <t>Huawei Pro16 White</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>High quality DeWalt X23 Safety. Best price.</t>
+          <t>Durable Huawei Pro16 White. Fast shipping.</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3915.07</v>
+        <v>2834.34</v>
       </c>
       <c r="D212" t="n">
-        <v>2856.51</v>
+        <v>2297.74</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Milwaukee X16 Hand Tools</t>
+          <t>Metabo X25 Safety</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>High quality Milwaukee X16 Hand Tools. Fast shipping.</t>
+          <t>Premium Metabo X25 Safety. New model.</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>4179.6</v>
+        <v>140.34</v>
       </c>
       <c r="D213" t="n">
-        <v>2960.72</v>
+        <v>112.6</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Power Tools &gt; Hand Tools</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Dyson S17 Kitchen</t>
+          <t>Canon Supplies Pro19</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>High quality Dyson S17 Kitchen. Best price.</t>
+          <t>Reliable Canon Supplies Pro19. Official distributor.</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4094.15</v>
+        <v>1429.98</v>
       </c>
       <c r="D214" t="n">
-        <v>2943.36</v>
+        <v>1138.38</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Appliances &gt; Kitchen</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Bosch Pro5 Kitchen</t>
+          <t>Samsung X31 27" Plus</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>High quality Bosch Pro5 Kitchen. Official distributor.</t>
+          <t>Reliable Samsung X31 27" Plus. Fast shipping.</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2190.55</v>
+        <v>2876.28</v>
       </c>
       <c r="D215" t="n">
-        <v>1737.68</v>
+        <v>2080.65</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Electronics &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Logitech Printers X25</t>
+          <t>Accessories Canon X3</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Reliable Logitech Printers X25. Fast shipping.</t>
+          <t>Durable Accessories Canon X3. With warranty.</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>4826.49</v>
+        <v>3519.18</v>
       </c>
       <c r="D216" t="n">
-        <v>3689.91</v>
+        <v>2623.03</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Lenovo X1 14" Plus</t>
+          <t>Samsung Climate Control (Basic)</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Durable Lenovo X1 14" Plus. With warranty.</t>
+          <t>High quality Samsung Climate Control (Basic). Best price.</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>4796.65</v>
+        <v>1473.28</v>
       </c>
       <c r="D217" t="n">
-        <v>3707.17</v>
+        <v>1191.92</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Bosch Garden Pro16</t>
+          <t>Samsung X32 Gray</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Premium Bosch Garden Pro16. Fast shipping.</t>
+          <t>High quality Samsung X32 Gray. Official distributor.</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>694.99</v>
+        <v>3217.18</v>
       </c>
       <c r="D218" t="n">
-        <v>508.24</v>
+        <v>2536.56</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Electronic &gt; Phones</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LG Climate Control (Basic)</t>
+          <t>Huawei X4 (Ultra)</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Professional LG Climate Control (Basic). Official distributor.</t>
+          <t>Professional Huawei X4 (Ultra). Best price.</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2601.82</v>
+        <v>1339.35</v>
       </c>
       <c r="D219" t="n">
-        <v>1919.16</v>
+        <v>1121.16</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Электроника &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>LG Laundry X33</t>
+          <t>Xiaomi X31 Red</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reliable LG Laundry X33. Fast shipping.</t>
+          <t>Durable Xiaomi X31 Red. Best price.</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2304.32</v>
+        <v>4111.29</v>
       </c>
       <c r="D220" t="n">
-        <v>1749.85</v>
+        <v>3001.11</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Canon S15 Printers</t>
+          <t>Xiaomi Cleaning (Lite)</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Reliable Canon S15 Printers. New model.</t>
+          <t>Professional Xiaomi Cleaning (Lite). With warranty.</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1889.14</v>
+        <v>2946.79</v>
       </c>
       <c r="D221" t="n">
-        <v>1523.52</v>
+        <v>2365.3</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ASUS S29 Red</t>
+          <t>Milwaukee Professional Safety</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>High quality ASUS S29 Red. Best price.</t>
+          <t>High quality Milwaukee Professional Safety. New model.</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2426.3</v>
+        <v>1632.52</v>
       </c>
       <c r="D222" t="n">
-        <v>1853.32</v>
+        <v>1214.94</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Samsung Kitchen S13</t>
+          <t>Dell X17 Accessories</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Reliable Samsung Kitchen S13. Best price.</t>
+          <t>Reliable Dell X17 Accessories. With warranty.</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3831.48</v>
+        <v>1013.55</v>
       </c>
       <c r="D223" t="n">
-        <v>3109.78</v>
+        <v>846.7</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Bosch Kitchen (Lite)</t>
+          <t>Supplies Canon X17</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Premium Bosch Kitchen (Lite). Fast shipping.</t>
+          <t>Premium Supplies Canon X17. Best price.</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2994.25</v>
+        <v>1895.98</v>
       </c>
       <c r="D224" t="n">
-        <v>2519.05</v>
+        <v>1436.34</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Metabo Professional Hand Tools</t>
+          <t>Bosch Hand Tools Pro18</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Durable Metabo Professional Hand Tools. Best price.</t>
+          <t>Premium Bosch Hand Tools Pro18. Fast shipping.</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2368.65</v>
+        <v>306.39</v>
       </c>
       <c r="D225" t="n">
-        <v>1905.06</v>
+        <v>217.17</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Инструменты &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Lenovo X33 (Pro)</t>
+          <t>Samsung S19 Gray</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>High quality Lenovo X33 (Pro). Fast shipping.</t>
+          <t>Professional Samsung S19 Gray. With warranty.</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>606.02</v>
+        <v>1488.72</v>
       </c>
       <c r="D226" t="n">
-        <v>437.68</v>
+        <v>1123.88</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5646,456 +5646,456 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Bosch Pro11 Cleaning</t>
+          <t>Bosch Kitchen (Plus)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>High quality Bosch Pro11 Cleaning. New model.</t>
+          <t>Durable Bosch Kitchen (Plus). New model.</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2997.97</v>
+        <v>4075.81</v>
       </c>
       <c r="D227" t="n">
-        <v>2262.53</v>
+        <v>3122.9</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Cleaning</t>
+          <t>Бытовая техника &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Dyson Cleaning S29</t>
+          <t>Lenovo X39 27" Basic</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>High quality Dyson Cleaning S29. With warranty.</t>
+          <t>Durable Lenovo X39 27" Basic. New model.</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3884.27</v>
+        <v>3096.78</v>
       </c>
       <c r="D228" t="n">
-        <v>2765.97</v>
+        <v>2405.11</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>LG Laundry X19</t>
+          <t>Huawei X25 (Pro)</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Premium LG Laundry X19. Best price.</t>
+          <t>Reliable Huawei X25 (Pro). New model.</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3752.29</v>
+        <v>654.75</v>
       </c>
       <c r="D229" t="n">
-        <v>2648.97</v>
+        <v>471.93</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Samsung X19 Red</t>
+          <t>Metabo Hand Tools X7</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Premium Samsung X19 Red. With warranty.</t>
+          <t>Professional Metabo Hand Tools X7. With warranty.</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>4685.42</v>
+        <v>4156.55</v>
       </c>
       <c r="D230" t="n">
-        <v>3499.05</v>
+        <v>3310.4</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Bosch Climate Control S3</t>
+          <t>HP Furniture Pro13</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Professional Bosch Climate Control S3. Best price.</t>
+          <t>Premium HP Furniture Pro13. Best price.</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>2781.98</v>
+        <v>3771.1</v>
       </c>
       <c r="D231" t="n">
-        <v>2213.23</v>
+        <v>2968.35</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Climate Control</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Canon S29 Supplies</t>
+          <t>Logitech Accessories X35</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Durable Canon S29 Supplies. Official distributor.</t>
+          <t>Premium Logitech Accessories X35. New model.</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3470.54</v>
+        <v>3170.62</v>
       </c>
       <c r="D232" t="n">
-        <v>2633.36</v>
+        <v>2365.13</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Bosch Garden X40</t>
+          <t>Furniture Epson X19</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Durable Bosch Garden X40. Best price.</t>
+          <t>Premium Furniture Epson X19. With warranty.</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3700</v>
+        <v>3580.68</v>
       </c>
       <c r="D233" t="n">
-        <v>3140.5</v>
+        <v>2544.28</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Makita Pro9 Garden</t>
+          <t>Dell S18 Supplies</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Premium Makita Pro9 Garden. Fast shipping.</t>
+          <t>Professional Dell S18 Supplies. New model.</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>603.41</v>
+        <v>3242.64</v>
       </c>
       <c r="D234" t="n">
-        <v>455.67</v>
+        <v>2416.3</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Garden</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Metabo X31 Safety</t>
+          <t>Metabo Power Tools X7</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reliable Metabo X31 Safety. New model.</t>
+          <t>Professional Metabo Power Tools X7. New model.</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3539.67</v>
+        <v>724.6799999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>2715.68</v>
+        <v>564.78</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Power Tools &gt; Safety</t>
+          <t>Инструменты &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Printers Epson X34</t>
+          <t>Lenovo X23 White</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Durable Printers Epson X34. New model.</t>
+          <t>High quality Lenovo X23 White. With warranty.</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>688.45</v>
+        <v>2760.09</v>
       </c>
       <c r="D236" t="n">
-        <v>497.89</v>
+        <v>2108.54</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>HP S22 Supplies</t>
+          <t>Metabo Garden Pro3</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Professional HP S22 Supplies. Official distributor.</t>
+          <t>High quality Metabo Garden Pro3. Official distributor.</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>2137.17</v>
+        <v>3167.46</v>
       </c>
       <c r="D237" t="n">
-        <v>1618.74</v>
+        <v>2494.89</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Xiaomi S27 Kitchen</t>
+          <t>Xiaomi Laundry (Plus)</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>High quality Xiaomi S27 Kitchen. New model.</t>
+          <t>Reliable Xiaomi Laundry (Plus). New model.</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>720.28</v>
+        <v>2145.51</v>
       </c>
       <c r="D238" t="n">
-        <v>529.91</v>
+        <v>1614.37</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Kitchen</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>DeWalt X37 Garden</t>
+          <t>Epson S26 Accessories</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Professional DeWalt X37 Garden. Best price.</t>
+          <t>Durable Epson S26 Accessories. Official distributor.</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1571.06</v>
+        <v>3872.06</v>
       </c>
       <c r="D239" t="n">
-        <v>1183.62</v>
+        <v>2862.65</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Tools &gt; Garden</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Apple S13 15.6" Ultra</t>
+          <t>Xiaomi Laundry (Ultra)</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Premium Apple S13 15.6" Ultra. Best price.</t>
+          <t>Reliable Xiaomi Laundry (Ultra). Official distributor.</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3793.45</v>
+        <v>4896.05</v>
       </c>
       <c r="D240" t="n">
-        <v>3022.66</v>
+        <v>3923.38</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Бытовая техника &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Milwaukee Hand Tools X26</t>
+          <t>Apple Pro5 Gray</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Premium Milwaukee Hand Tools X26. Best price.</t>
+          <t>Professional Apple Pro5 Gray. Best price.</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>414.26</v>
+        <v>1774.64</v>
       </c>
       <c r="D241" t="n">
-        <v>295.8</v>
+        <v>1338.79</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Hardware &gt; Hand Tools</t>
+          <t>Electronics/Gadgets &gt; Tablets</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Samsung Laundry Pro8</t>
+          <t>DeWalt S18 Garden</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Reliable Samsung Laundry Pro8. New model.</t>
+          <t>High quality DeWalt S18 Garden. New model.</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>507.99</v>
+        <v>4116.98</v>
       </c>
       <c r="D242" t="n">
-        <v>407.28</v>
+        <v>3370.61</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Xiaomi Cleaning (Basic)</t>
+          <t>Supplies Dell S10</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Durable Xiaomi Cleaning (Basic). New model.</t>
+          <t>Professional Supplies Dell S10. Official distributor.</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>177.56</v>
+        <v>1836.22</v>
       </c>
       <c r="D243" t="n">
-        <v>131.13</v>
+        <v>1454.14</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Бытовая техника &gt; Cleaning</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Xiaomi Pro5 13" Pro</t>
+          <t>Makita X6 Safety</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Durable Xiaomi Pro5 13" Pro. Official distributor.</t>
+          <t>Premium Makita X6 Safety. Best price.</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>957.3200000000001</v>
+        <v>314.47</v>
       </c>
       <c r="D244" t="n">
-        <v>730.21</v>
+        <v>234.32</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Apple X9 27" Plus</t>
+          <t>Metabo Professional Hand Tools</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Professional Apple X9 27" Plus. Official distributor.</t>
+          <t>Premium Metabo Professional Hand Tools. Fast shipping.</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>4714.28</v>
+        <v>4835.95</v>
       </c>
       <c r="D245" t="n">
-        <v>3951.82</v>
+        <v>3758.32</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Электроника &gt; Accessories</t>
+          <t>Power Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>DeWalt Safety X28</t>
+          <t>Bosch Pro6 Safety</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Reliable DeWalt Safety X28. With warranty.</t>
+          <t>Professional Bosch Pro6 Safety. Official distributor.</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>613.98</v>
+        <v>4860.3</v>
       </c>
       <c r="D246" t="n">
-        <v>516.85</v>
+        <v>3543.76</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -6106,433 +6106,433 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>LG X42 Laundry</t>
+          <t>Huawei Pro5 White</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Durable LG X42 Laundry. Official distributor.</t>
+          <t>Reliable Huawei Pro5 White. With warranty.</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>748.67</v>
+        <v>814.9299999999999</v>
       </c>
       <c r="D247" t="n">
-        <v>547.58</v>
+        <v>662.86</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ASUS X2 White</t>
+          <t>DeWalt Power Tools S19</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Reliable ASUS X2 White. New model.</t>
+          <t>Durable DeWalt Power Tools S19. Best price.</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>830.64</v>
+        <v>2000.86</v>
       </c>
       <c r="D248" t="n">
-        <v>678.1</v>
+        <v>1618.69</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Bosch X7 Garden</t>
+          <t>DeWalt Hand Tools X5</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>High quality Bosch X7 Garden. Fast shipping.</t>
+          <t>Professional DeWalt Hand Tools X5. Official distributor.</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>740.91</v>
+        <v>3495.27</v>
       </c>
       <c r="D249" t="n">
-        <v>603.91</v>
+        <v>2882.32</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Hardware &gt; Garden</t>
+          <t>Tools &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Samsung S13 (Pro)</t>
+          <t>Apple S19 Black</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>High quality Samsung S13 (Pro). Fast shipping.</t>
+          <t>Professional Apple S19 Black. New model.</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>2957.09</v>
+        <v>1757.75</v>
       </c>
       <c r="D250" t="n">
-        <v>2458.46</v>
+        <v>1369.33</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Electronics/Gadgets &gt; Laptop Computer</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Dyson S21 Laundry</t>
+          <t>Huawei S9 55" Air</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Reliable Dyson S21 Laundry. Best price.</t>
+          <t>Durable Huawei S9 55" Air. New model.</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>546.8</v>
+        <v>3867.2</v>
       </c>
       <c r="D251" t="n">
-        <v>401.65</v>
+        <v>3106.85</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Supplies Logitech Pro4</t>
+          <t>Makita X21 Garden</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Durable Supplies Logitech Pro4. New model.</t>
+          <t>Reliable Makita X21 Garden. New model.</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>134.91</v>
+        <v>662.6799999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>114.54</v>
+        <v>561.24</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Canon Supplies Pro18</t>
+          <t>Bosch Cleaning (Pro)</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Durable Canon Supplies Pro18. With warranty.</t>
+          <t>Premium Bosch Cleaning (Pro). With warranty.</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>1996.38</v>
+        <v>1887.73</v>
       </c>
       <c r="D253" t="n">
-        <v>1415.76</v>
+        <v>1321.5</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Supplies Logitech Pro12</t>
+          <t>Furniture Dell X26</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Professional Supplies Logitech Pro12. Fast shipping.</t>
+          <t>High quality Furniture Dell X26. Fast shipping.</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1722.24</v>
+        <v>4403.03</v>
       </c>
       <c r="D254" t="n">
-        <v>1317.62</v>
+        <v>3183.71</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Philips Kitchen (Plus)</t>
+          <t>Bosch Professional Hand Tools</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Premium Philips Kitchen (Plus). Fast shipping.</t>
+          <t>Professional Bosch Professional Hand Tools. Best price.</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>4183.63</v>
+        <v>2791.23</v>
       </c>
       <c r="D255" t="n">
-        <v>3512.3</v>
+        <v>1992.85</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Hardware &gt; Hand Tools</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Samsung Pro17 (Pro)</t>
+          <t>Samsung Climate Control (Lite)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Reliable Samsung Pro17 (Pro). Official distributor.</t>
+          <t>Premium Samsung Climate Control (Lite). With warranty.</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>3895.51</v>
+        <v>247.54</v>
       </c>
       <c r="D256" t="n">
-        <v>3094.87</v>
+        <v>180.11</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Electronic &gt; Laptops</t>
+          <t>Бытовая техника &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Makita S4 Power Tools</t>
+          <t>Dell X41 Accessories</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Durable Makita S4 Power Tools. New model.</t>
+          <t>Premium Dell X41 Accessories. Fast shipping.</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>4238.56</v>
+        <v>87.94</v>
       </c>
       <c r="D257" t="n">
-        <v>3490.7</v>
+        <v>65.42</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Xiaomi Pro9 Black</t>
+          <t>Milwaukee Garden S3</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Pro9 Black. With warranty.</t>
+          <t>Durable Milwaukee Garden S3. New model.</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>4991.73</v>
+        <v>1682.05</v>
       </c>
       <c r="D258" t="n">
-        <v>3619.29</v>
+        <v>1392.47</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Power Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Dyson S26 Climate Control</t>
+          <t>ASUS Pro3 27" Premium</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>High quality Dyson S26 Climate Control. Official distributor.</t>
+          <t>High quality ASUS Pro3 27" Premium. New model.</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1777.98</v>
+        <v>4231.73</v>
       </c>
       <c r="D259" t="n">
-        <v>1326.23</v>
+        <v>3397.09</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Philips Pro11 Laundry</t>
+          <t>Philips X28 Cleaning</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Durable Philips Pro11 Laundry. With warranty.</t>
+          <t>Professional Philips X28 Cleaning. Official distributor.</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>1377.85</v>
+        <v>2852.61</v>
       </c>
       <c r="D260" t="n">
-        <v>1136.02</v>
+        <v>2004.89</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Dell X27 Accessories</t>
+          <t>Bosch Kitchen (Ultra)</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Professional Dell X27 Accessories. New model.</t>
+          <t>Durable Bosch Kitchen (Ultra). New model.</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>4310.59</v>
+        <v>2202.43</v>
       </c>
       <c r="D261" t="n">
-        <v>3622.88</v>
+        <v>1599.31</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Philips Cleaning S28</t>
+          <t>Logitech X20 Printers</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Reliable Philips Cleaning S28. Official distributor.</t>
+          <t>High quality Logitech X20 Printers. Fast shipping.</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>4713.51</v>
+        <v>2232.68</v>
       </c>
       <c r="D262" t="n">
-        <v>3566.86</v>
+        <v>1645.98</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Samsung X45 (Plus)</t>
+          <t>HP Supplies Pro13</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Reliable Samsung X45 (Plus). Fast shipping.</t>
+          <t>Premium HP Supplies Pro13. Fast shipping.</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>851.11</v>
+        <v>283.44</v>
       </c>
       <c r="D263" t="n">
-        <v>643.09</v>
+        <v>210.95</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Apple X42 13" Plus</t>
+          <t>Metabo Professional Safety</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Professional Apple X42 13" Plus. Best price.</t>
+          <t>Professional Metabo Professional Safety. With warranty.</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>4287.44</v>
+        <v>3459.94</v>
       </c>
       <c r="D264" t="n">
-        <v>3434.68</v>
+        <v>2472.49</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Electronics &gt; Mobile Phones</t>
+          <t>Инструменты &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Samsung Cleaning (Basic)</t>
+          <t>Dyson X14 Cleaning</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Reliable Samsung Cleaning (Basic). With warranty.</t>
+          <t>Professional Dyson X14 Cleaning. With warranty.</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>3016.67</v>
+        <v>2424.58</v>
       </c>
       <c r="D265" t="n">
-        <v>2438.5</v>
+        <v>1749.95</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -6543,157 +6543,157 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ASUS S21 15.6" Basic</t>
+          <t>Xiaomi Climate Control (Air)</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>High quality ASUS S21 15.6" Basic. Best price.</t>
+          <t>Professional Xiaomi Climate Control (Air). Fast shipping.</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1231</v>
+        <v>2404.33</v>
       </c>
       <c r="D266" t="n">
-        <v>920.58</v>
+        <v>1782.34</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Electronics/Gadgets &gt; Smartphones</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Canon X47 Supplies</t>
+          <t>Makita S22 Power Tools</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>High quality Canon X47 Supplies. With warranty.</t>
+          <t>Professional Makita S22 Power Tools. Best price.</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>4759.14</v>
+        <v>4345.81</v>
       </c>
       <c r="D267" t="n">
-        <v>4027.89</v>
+        <v>3647.99</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Hardware &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Makita Safety X2</t>
+          <t>Bosch Kitchen (Premium)</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Premium Makita Safety X2. New model.</t>
+          <t>Durable Bosch Kitchen (Premium). Official distributor.</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>4950.28</v>
+        <v>1235.49</v>
       </c>
       <c r="D268" t="n">
-        <v>4055.35</v>
+        <v>896.83</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Home &amp; Kitchen &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Accessories Dell S15</t>
+          <t>Metabo Garden X1</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Reliable Accessories Dell S15. Best price.</t>
+          <t>High quality Metabo Garden X1. Official distributor.</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2449.15</v>
+        <v>4575.03</v>
       </c>
       <c r="D269" t="n">
-        <v>1903.16</v>
+        <v>3301.72</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Lenovo S26 27" Air</t>
+          <t>Apple X22 65" Air</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Durable Lenovo S26 27" Air. Fast shipping.</t>
+          <t>Durable Apple X22 65" Air. Best price.</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>4876.02</v>
+        <v>540.02</v>
       </c>
       <c r="D270" t="n">
-        <v>3975.09</v>
+        <v>397.72</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Электроника &gt; Accessories</t>
+          <t>Electronics &gt; Laptops</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ASUS X21 (Pro)</t>
+          <t>LG Cleaning X27</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Premium ASUS X21 (Pro). Fast shipping.</t>
+          <t>Premium LG Cleaning X27. New model.</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1277.47</v>
+        <v>4914.33</v>
       </c>
       <c r="D271" t="n">
-        <v>915.1</v>
+        <v>3892.38</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Electronic &gt; Laptops</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Canon X39 Supplies</t>
+          <t>Supplies Epson S24</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Premium Canon X39 Supplies. With warranty.</t>
+          <t>Premium Supplies Epson S24. Official distributor.</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1955.59</v>
+        <v>3908.1</v>
       </c>
       <c r="D272" t="n">
-        <v>1467.56</v>
+        <v>3037.05</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -6704,617 +6704,617 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Lenovo Pro16 Gray</t>
+          <t>Philips Laundry (Plus)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>High quality Lenovo Pro16 Gray. Official distributor.</t>
+          <t>Professional Philips Laundry (Plus). Fast shipping.</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>3116.26</v>
+        <v>3284.82</v>
       </c>
       <c r="D273" t="n">
-        <v>2510</v>
+        <v>2406.4</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Electronics &gt; Notebook</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Apple S23 Black</t>
+          <t>Samsung Laundry X22</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>High quality Apple S23 Black. Fast shipping.</t>
+          <t>Reliable Samsung Laundry X22. Fast shipping.</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>707.8200000000001</v>
+        <v>285.83</v>
       </c>
       <c r="D274" t="n">
-        <v>596.4400000000001</v>
+        <v>237.22</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Electronics &gt; Laptops</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Bosch Safety Pro7</t>
+          <t>Lenovo X17 White</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Durable Bosch Safety Pro7. Official distributor.</t>
+          <t>Durable Lenovo X17 White. Best price.</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>4833.17</v>
+        <v>2779.42</v>
       </c>
       <c r="D275" t="n">
-        <v>3772.15</v>
+        <v>2054.44</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Tools &gt; Safety</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>HP X18 Printers</t>
+          <t>Samsung Laundry (Ultra)</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Professional HP X18 Printers. Official distributor.</t>
+          <t>Premium Samsung Laundry (Ultra). Best price.</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1351.46</v>
+        <v>2447.86</v>
       </c>
       <c r="D276" t="n">
-        <v>948.9400000000001</v>
+        <v>1992.71</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Бытовая техника &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Accessories HP S14</t>
+          <t>Dell Supplies X25</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>High quality Accessories HP S14. Fast shipping.</t>
+          <t>Reliable Dell Supplies X25. Official distributor.</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>3043.06</v>
+        <v>883.04</v>
       </c>
       <c r="D277" t="n">
-        <v>2162.98</v>
+        <v>732.76</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Metabo Power Tools S27</t>
+          <t>Metabo Professional Power Tools</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Durable Metabo Power Tools S27. Fast shipping.</t>
+          <t>Premium Metabo Professional Power Tools. Official distributor.</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>966.22</v>
+        <v>4982.61</v>
       </c>
       <c r="D278" t="n">
-        <v>724.63</v>
+        <v>4115.86</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Hardware &gt; Power Tools</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Apple Pro9 Silver</t>
+          <t>Xiaomi Kitchen (Basic)</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Reliable Apple Pro9 Silver. Best price.</t>
+          <t>High quality Xiaomi Kitchen (Basic). New model.</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>2669.23</v>
+        <v>4029.6</v>
       </c>
       <c r="D279" t="n">
-        <v>2192.41</v>
+        <v>2831.26</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Electronics &gt; Ноутбуки</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ASUS X35 55" Pro</t>
+          <t>Milwaukee X24 Safety</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>High quality ASUS X35 55" Pro. With warranty.</t>
+          <t>Reliable Milwaukee X24 Safety. Official distributor.</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>4587.95</v>
+        <v>951.5</v>
       </c>
       <c r="D280" t="n">
-        <v>3792.63</v>
+        <v>757.54</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Huawei S26 (Basic)</t>
+          <t>Samsung X47 Laundry</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Premium Huawei S26 (Basic). With warranty.</t>
+          <t>Professional Samsung X47 Laundry. Best price.</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>2740.88</v>
+        <v>2989.76</v>
       </c>
       <c r="D281" t="n">
-        <v>2299.23</v>
+        <v>2478.94</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Electronics/Gadgets &gt; Accessories</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Samsung Cleaning Pro13</t>
+          <t>Makita Power Tools X20</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Premium Samsung Cleaning Pro13. Fast shipping.</t>
+          <t>Premium Makita Power Tools X20. Fast shipping.</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>1317.24</v>
+        <v>1920.11</v>
       </c>
       <c r="D282" t="n">
-        <v>1114.48</v>
+        <v>1542.33</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Makita Pro18 Hand Tools</t>
+          <t>Canon Pro6 Supplies</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Durable Makita Pro18 Hand Tools. Best price.</t>
+          <t>Durable Canon Pro6 Supplies. Official distributor.</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1016</v>
+        <v>377.11</v>
       </c>
       <c r="D283" t="n">
-        <v>727.27</v>
+        <v>306.33</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Samsung Climate Control (Max)</t>
+          <t>Apple S17 Blue</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Premium Samsung Climate Control (Max). Fast shipping.</t>
+          <t>Reliable Apple S17 Blue. With warranty.</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>1970.57</v>
+        <v>545.13</v>
       </c>
       <c r="D284" t="n">
-        <v>1554.52</v>
+        <v>449.3</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Electronics &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Furniture HP S3</t>
+          <t>Samsung X26 Laundry</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Professional Furniture HP S3. New model.</t>
+          <t>Durable Samsung X26 Laundry. Fast shipping.</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3310.14</v>
+        <v>2585.35</v>
       </c>
       <c r="D285" t="n">
-        <v>2794.46</v>
+        <v>2135.32</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Home Appliances &gt; Laundry</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ASUS X19 17" Max</t>
+          <t>Metabo Safety X14</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Professional ASUS X19 17" Max. New model.</t>
+          <t>Reliable Metabo Safety X14. Best price.</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4914.73</v>
+        <v>2842.55</v>
       </c>
       <c r="D286" t="n">
-        <v>3979.25</v>
+        <v>2407.56</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Electronics &gt; Tablets</t>
+          <t>Tools &gt; Safety</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Dyson Pro7 Cleaning</t>
+          <t>Lenovo X44 White</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>High quality Dyson Pro7 Cleaning. With warranty.</t>
+          <t>Premium Lenovo X44 White. Fast shipping.</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>3449.73</v>
+        <v>2266.34</v>
       </c>
       <c r="D287" t="n">
-        <v>2638.66</v>
+        <v>1821.67</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Cleaning</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Epson S25 Supplies</t>
+          <t>Xiaomi S15 Black</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Durable Epson S25 Supplies. Official distributor.</t>
+          <t>Durable Xiaomi S15 Black. With warranty.</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3581.19</v>
+        <v>3256.91</v>
       </c>
       <c r="D288" t="n">
-        <v>2738.08</v>
+        <v>2357.79</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Office &gt; Supplies</t>
+          <t>Electronics &gt; Ноутбуки</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Samsung X35 (Plus)</t>
+          <t>Samsung Climate Control (Premium)</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>High quality Samsung X35 (Plus). New model.</t>
+          <t>Professional Samsung Climate Control (Premium). Best price.</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>4068.82</v>
+        <v>3238.77</v>
       </c>
       <c r="D289" t="n">
-        <v>3309.06</v>
+        <v>2449.47</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Electronics &gt; Accessories</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Milwaukee X20 Power Tools</t>
+          <t>DeWalt Power Tools X18</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Professional Milwaukee X20 Power Tools. With warranty.</t>
+          <t>Durable DeWalt Power Tools X18. New model.</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>4904.35</v>
+        <v>3114.31</v>
       </c>
       <c r="D290" t="n">
-        <v>3807.18</v>
+        <v>2252.42</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Tools &gt; Power Tools</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Bosch X45 Cleaning</t>
+          <t>Canon X46 Printers</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Durable Bosch X45 Cleaning. New model.</t>
+          <t>Durable Canon X46 Printers. With warranty.</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>487.51</v>
+        <v>507.24</v>
       </c>
       <c r="D291" t="n">
-        <v>360.32</v>
+        <v>385.97</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>HP Pro11 Furniture</t>
+          <t>Makita Pro11 Garden</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Reliable HP Pro11 Furniture. New model.</t>
+          <t>Premium Makita Pro11 Garden. Fast shipping.</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>3855.77</v>
+        <v>4706.62</v>
       </c>
       <c r="D292" t="n">
-        <v>2721.61</v>
+        <v>3331.67</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Power Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Dell X10 Printers</t>
+          <t>LG S25 Climate Control</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>High quality Dell X10 Printers. Fast shipping.</t>
+          <t>Durable LG S25 Climate Control. New model.</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1194.75</v>
+        <v>2222.12</v>
       </c>
       <c r="D293" t="n">
-        <v>1004.85</v>
+        <v>1681.56</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Office &gt; Printers</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>LG Climate Control (Plus)</t>
+          <t>Makita Professional Garden</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Durable LG Climate Control (Plus). New model.</t>
+          <t>Durable Makita Professional Garden. Fast shipping.</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>1220.06</v>
+        <v>4863.33</v>
       </c>
       <c r="D294" t="n">
-        <v>894.46</v>
+        <v>3658.33</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Home &amp; Kitchen &gt; Climate Control</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>LG Laundry (Plus)</t>
+          <t>Dyson Kitchen (Max)</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Premium LG Laundry (Plus). New model.</t>
+          <t>Professional Dyson Kitchen (Max). Best price.</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>3941.97</v>
+        <v>4154.62</v>
       </c>
       <c r="D295" t="n">
-        <v>2853.97</v>
+        <v>3317.9</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Metabo Hand Tools X12</t>
+          <t>Canon X26 Furniture</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Premium Metabo Hand Tools X12. Official distributor.</t>
+          <t>High quality Canon X26 Furniture. New model.</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1362.92</v>
+        <v>530.1799999999999</v>
       </c>
       <c r="D296" t="n">
-        <v>1132.73</v>
+        <v>433.95</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Bosch Kitchen Pro13</t>
+          <t>Canon X43 Accessories</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Durable Bosch Kitchen Pro13. With warranty.</t>
+          <t>High quality Canon X43 Accessories. With warranty.</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4196.31</v>
+        <v>544.73</v>
       </c>
       <c r="D297" t="n">
-        <v>3364.85</v>
+        <v>393.9</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Kitchen</t>
+          <t>Office &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>DeWalt X39 Power Tools</t>
+          <t>Lenovo Pro18 (Premium)</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Professional DeWalt X39 Power Tools. Fast shipping.</t>
+          <t>High quality Lenovo Pro18 (Premium). Official distributor.</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>4090.41</v>
+        <v>1652.98</v>
       </c>
       <c r="D298" t="n">
-        <v>2931.25</v>
+        <v>1233.68</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Инструменты &gt; Power Tools</t>
+          <t>Electronics &gt; Smartphones</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Lenovo X47 Black</t>
+          <t>Huawei Pro4 27" Plus</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Durable Lenovo X47 Black. New model.</t>
+          <t>Durable Huawei Pro4 27" Plus. With warranty.</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>642.72</v>
+        <v>2890.92</v>
       </c>
       <c r="D299" t="n">
-        <v>471.28</v>
+        <v>2059.79</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -7325,276 +7325,276 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Apple S10 (Ultra)</t>
+          <t>Printers Epson Pro1</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Premium Apple S10 (Ultra). With warranty.</t>
+          <t>Durable Printers Epson Pro1. Fast shipping.</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>1211.46</v>
+        <v>1912.91</v>
       </c>
       <c r="D300" t="n">
-        <v>936.73</v>
+        <v>1385.89</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Electronics &gt; Smartphones</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Makita X27 Hand Tools</t>
+          <t>LG S10 Kitchen</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Premium Makita X27 Hand Tools. Fast shipping.</t>
+          <t>Reliable LG S10 Kitchen. Best price.</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>1800.61</v>
+        <v>2785.94</v>
       </c>
       <c r="D301" t="n">
-        <v>1412.96</v>
+        <v>2207.03</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Home Appliances &gt; Kitchen</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Epson S10 Furniture</t>
+          <t>ASUS Pro11 Gray</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Reliable Epson S10 Furniture. Official distributor.</t>
+          <t>Premium ASUS Pro11 Gray. New model.</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>1079.73</v>
+        <v>2946.85</v>
       </c>
       <c r="D302" t="n">
-        <v>797.05</v>
+        <v>2341.32</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Office &gt; Furniture</t>
+          <t>Electronics/Gadgets &gt; Accessories</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Makita X27 Hand Tools</t>
+          <t>Samsung Climate Control (Premium)</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Premium Makita X27 Hand Tools. Fast shipping.</t>
+          <t>Professional Samsung Climate Control (Premium). Best price.</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1799.78</v>
+        <v>3238.31</v>
       </c>
       <c r="D303" t="n">
-        <v>1412.96</v>
+        <v>2449.47</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Accessories Dell Pro5</t>
+          <t>DeWalt S18 Garden</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Durable Accessories Dell Pro5. With warranty.</t>
+          <t>High quality DeWalt S18 Garden. New model.</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>717.5599999999999</v>
+        <v>4130.09</v>
       </c>
       <c r="D304" t="n">
-        <v>560.52</v>
+        <v>3370.61</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Office &gt; Accessories</t>
+          <t>Tools &gt; Garden</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>LG Laundry X43</t>
+          <t>Dell X1 Printers</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Professional LG Laundry X43. Fast shipping.</t>
+          <t>Durable Dell X1 Printers. With warranty.</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>3855.13</v>
+        <v>3573.88</v>
       </c>
       <c r="D305" t="n">
-        <v>2867.73</v>
+        <v>2856.3</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Office &gt; Printers</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Bosch Pro11 Hand Tools</t>
+          <t>Philips Climate Control (Pro)</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Professional Bosch Pro11 Hand Tools. With warranty.</t>
+          <t>Professional Philips Climate Control (Pro). New model.</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>3935.1</v>
+        <v>3492.37</v>
       </c>
       <c r="D306" t="n">
-        <v>3014.9</v>
+        <v>2580.61</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Bosch Professional Hand Tools</t>
+          <t>HP Supplies Pro13</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Premium Bosch Professional Hand Tools. Official distributor.</t>
+          <t>Premium HP Supplies Pro13. Fast shipping.</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>49.69</v>
+        <v>283.2</v>
       </c>
       <c r="D307" t="n">
-        <v>41.19</v>
+        <v>210.95</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Tools &gt; Hand Tools</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Bosch Pro18 Climate Control</t>
+          <t>HP S1 Furniture</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Premium Bosch Pro18 Climate Control. Official distributor.</t>
+          <t>Durable HP S1 Furniture. Official distributor.</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>615.41</v>
+        <v>378.78</v>
       </c>
       <c r="D308" t="n">
-        <v>517.84</v>
+        <v>279.14</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Climate Control</t>
+          <t>Office &gt; Furniture</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Philips Laundry Pro8</t>
+          <t>Dyson Climate Control S19</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Premium Philips Laundry Pro8. New model.</t>
+          <t>High quality Dyson Climate Control S19. Best price.</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>324.01</v>
+        <v>4732.5</v>
       </c>
       <c r="D309" t="n">
-        <v>268.43</v>
+        <v>3996.82</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Laundry</t>
+          <t>Home Appliances &gt; Climate Control</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Xiaomi Pro9 Black</t>
+          <t>Bosch Cleaning (Plus)</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Professional Xiaomi Pro9 Black. With warranty.</t>
+          <t>High quality Bosch Cleaning (Plus). Best price.</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>5006.55</v>
+        <v>577.37</v>
       </c>
       <c r="D310" t="n">
-        <v>3619.29</v>
+        <v>442.07</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Электроника &gt; Tablets</t>
+          <t>Home Appliances &gt; Cleaning</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Philips Cleaning S28</t>
+          <t>Supplies Canon X17</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Reliable Philips Cleaning S28. Official distributor.</t>
+          <t>Premium Supplies Canon X17. Best price.</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>4726.33</v>
+        <v>1902.1</v>
       </c>
       <c r="D311" t="n">
-        <v>3566.86</v>
+        <v>1436.34</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Home Appliances &gt; Cleaning</t>
+          <t>Office &gt; Supplies</t>
         </is>
       </c>
     </row>
